--- a/metrics/NoReference.xlsx
+++ b/metrics/NoReference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Desktop\Watermarking\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9496EF-7BD3-4491-BD3B-A7CDE9A287E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC1AE1B-C6C4-4692-890C-94BB173A421A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{F1F48BD1-7C9B-4DC7-B5FD-C8B972C77A07}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{B31CBAAA-04E3-4DC2-8BCF-558068895014}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9AA5E2-5779-49DE-B09E-D04004C9B358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DE52F3-8CBE-4641-AF30-148417D0E576}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -407,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C13FF2-6971-4585-8C4C-EB600F0A8B63}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913801F-2465-4F68-B6EF-3AA7771AD3CC}">
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,702 +438,5402 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3.1747227828049418</v>
+        <v>24.273248103273772</v>
       </c>
       <c r="B2">
-        <v>31304.59450050637</v>
+        <v>22.020764594340847</v>
       </c>
       <c r="C2">
-        <v>505354</v>
+        <v>5.5132309464730946</v>
       </c>
       <c r="D2">
-        <v>0.1689913389907392</v>
+        <v>5.0259501237339901</v>
       </c>
       <c r="E2">
-        <v>0.16952931880950928</v>
+        <v>13.424967682406832</v>
       </c>
       <c r="F2">
-        <v>0.25281360745429993</v>
+        <v>13.9578071476473</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4.4603920630782348</v>
+        <v>21.345518684295961</v>
       </c>
       <c r="B3">
-        <v>23283.118824146411</v>
+        <v>9.9011041550938756</v>
       </c>
       <c r="C3">
-        <v>469032</v>
+        <v>6.8150801484344106</v>
       </c>
       <c r="D3">
-        <v>0.25796334228204904</v>
+        <v>6.1424296186859468</v>
       </c>
       <c r="E3">
-        <v>0.23855127394199371</v>
+        <v>21.470005223339392</v>
       </c>
       <c r="F3">
-        <v>0.30299174785614014</v>
+        <v>21.626594482522496</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3.4901148288479766</v>
+        <v>24.412946727945076</v>
       </c>
       <c r="B4">
-        <v>29111.787868923609</v>
+        <v>26.690783282267738</v>
       </c>
       <c r="C4">
-        <v>503843</v>
+        <v>5.8492242048793255</v>
       </c>
       <c r="D4">
-        <v>0.19418899381345275</v>
+        <v>5.646695273990515</v>
       </c>
       <c r="E4">
-        <v>0.21962334215641022</v>
+        <v>8.7529994704591711</v>
       </c>
       <c r="F4">
-        <v>0.29449668526649475</v>
+        <v>8.9605191668755211</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3.7172432931071144</v>
+        <v>29.947800261663744</v>
       </c>
       <c r="B5">
-        <v>27628.418863932293</v>
+        <v>25.164189386342237</v>
       </c>
       <c r="C5">
-        <v>473490</v>
+        <v>5.9992637216378766</v>
       </c>
       <c r="D5">
-        <v>0.17675386663489778</v>
+        <v>5.7142414715491334</v>
       </c>
       <c r="E5">
-        <v>0.25641271471977234</v>
+        <v>14.51822346998714</v>
       </c>
       <c r="F5">
-        <v>0.31152263283729553</v>
+        <v>13.819414428182109</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2.5075191077462078</v>
+        <v>39.918781080510882</v>
       </c>
       <c r="B6">
-        <v>36502.990894458904</v>
+        <v>35.140911805645452</v>
       </c>
       <c r="C6">
-        <v>592083</v>
+        <v>5.6929495659266998</v>
       </c>
       <c r="D6">
-        <v>8.1832420715166637E-2</v>
+        <v>5.1910011877733533</v>
       </c>
       <c r="E6">
-        <v>0.2839638888835907</v>
+        <v>34.961215785443329</v>
       </c>
       <c r="F6">
-        <v>0.33635044097900391</v>
+        <v>35.951110207936424</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3.8654500679321617</v>
+        <v>23.519500478480708</v>
       </c>
       <c r="B7">
-        <v>26701.481237340853</v>
+        <v>23.84902751054031</v>
       </c>
       <c r="C7">
-        <v>543174</v>
+        <v>2.8290447690361678</v>
       </c>
       <c r="D7">
-        <v>0.16784797317215594</v>
+        <v>2.8722811231290484</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>16.429963850930321</v>
       </c>
       <c r="F7">
-        <v>0.23332853615283966</v>
+        <v>14.884468685911569</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>4.7567983138628023</v>
+        <v>15.313569106836106</v>
       </c>
       <c r="B8">
-        <v>21747.058837890625</v>
+        <v>15.53546875076519</v>
       </c>
       <c r="C8">
-        <v>493642</v>
+        <v>3.0123899418344391</v>
       </c>
       <c r="D8">
-        <v>0.22363114870272471</v>
+        <v>2.9445784776788559</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>23.666598776307406</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>21.873276241652579</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5.3102820071376442</v>
+        <v>26.68209946081646</v>
       </c>
       <c r="B9">
-        <v>19144.858470775464</v>
+        <v>27.096579861680173</v>
       </c>
       <c r="C9">
-        <v>486301</v>
+        <v>2.664184739519484</v>
       </c>
       <c r="D9">
-        <v>0.2583742158619326</v>
+        <v>2.5821920394074391</v>
       </c>
       <c r="E9">
-        <v>0.16839148104190826</v>
+        <v>25.254724635296149</v>
       </c>
       <c r="F9">
-        <v>0.23126110434532166</v>
+        <v>23.797736792846113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>6.8574512356329649</v>
+        <v>16.972373716503476</v>
       </c>
       <c r="B10">
-        <v>13407.111997251157</v>
+        <v>16.700643184356679</v>
       </c>
       <c r="C10">
-        <v>451530</v>
+        <v>3.2358329233962362</v>
       </c>
       <c r="D10">
-        <v>0.28831928836428844</v>
+        <v>3.2242472758561518</v>
       </c>
       <c r="E10">
-        <v>0.16508309543132782</v>
+        <v>12.618694654865582</v>
       </c>
       <c r="F10">
-        <v>0.21289929747581482</v>
+        <v>12.550490888605861</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9.5713997482430511</v>
+        <v>20.204977989459344</v>
       </c>
       <c r="B11">
-        <v>7176.9576913339124</v>
+        <v>20.116470885255275</v>
       </c>
       <c r="C11">
-        <v>413370</v>
+        <v>4.4239816020118852</v>
       </c>
       <c r="D11">
-        <v>0.31547337090225358</v>
+        <v>4.4204394596262242</v>
       </c>
       <c r="E11">
-        <v>0.18988355994224548</v>
+        <v>17.111945899795312</v>
       </c>
       <c r="F11">
-        <v>0.23533524572849274</v>
+        <v>17.493903116134334</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>6.9310588668808855</v>
+        <v>24.386329625448219</v>
       </c>
       <c r="B12">
-        <v>13181.792598017943</v>
+        <v>24.753250851311556</v>
       </c>
       <c r="C12">
-        <v>438570</v>
+        <v>4.9863835253515116</v>
       </c>
       <c r="D12">
-        <v>0.37901700883990092</v>
+        <v>4.940972814959002</v>
       </c>
       <c r="E12">
-        <v>0.26696464419364929</v>
+        <v>8.0294483719538103</v>
       </c>
       <c r="F12">
-        <v>0.32890132069587708</v>
+        <v>7.5864721411553262</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5.7456510703439942</v>
+        <v>21.273986170419647</v>
       </c>
       <c r="B13">
-        <v>17318.698585792823</v>
+        <v>21.04950338879063</v>
       </c>
       <c r="C13">
-        <v>450893</v>
+        <v>2.4428486298303795</v>
       </c>
       <c r="D13">
-        <v>0.3168415121062878</v>
+        <v>2.4079739427475984</v>
       </c>
       <c r="E13">
-        <v>0.21056927740573883</v>
+        <v>13.183893226319695</v>
       </c>
       <c r="F13">
-        <v>0.26270198822021484</v>
+        <v>12.729711275506798</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>7.2130292148046316</v>
+        <v>9.6344851362124686</v>
       </c>
       <c r="B14">
-        <v>12353.142162181715</v>
+        <v>9.5538023796606666</v>
       </c>
       <c r="C14">
-        <v>439197</v>
+        <v>2.9864662907494148</v>
       </c>
       <c r="D14">
-        <v>0.38058949338050002</v>
+        <v>3.0871140406963051</v>
       </c>
       <c r="E14">
-        <v>0.26481208205223083</v>
+        <v>16.708089775512757</v>
       </c>
       <c r="F14">
-        <v>0.31192371249198914</v>
+        <v>15.754776696058467</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>3.6803060800891343</v>
+        <v>34.738291901613358</v>
       </c>
       <c r="B15">
-        <v>27864.403654875576</v>
+        <v>34.849366599543337</v>
       </c>
       <c r="C15">
-        <v>521987</v>
+        <v>5.4122692721533561</v>
       </c>
       <c r="D15">
-        <v>0.16177069810767383</v>
+        <v>5.3424746326897088</v>
       </c>
       <c r="E15">
-        <v>0.20242932438850403</v>
+        <v>22.763985569012824</v>
       </c>
       <c r="F15">
-        <v>0.27084344625473022</v>
+        <v>23.144369821033681</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>8.3372580449322147</v>
+        <v>21.921831148452675</v>
       </c>
       <c r="B16">
-        <v>9535.743408203125</v>
+        <v>20.343746077090064</v>
       </c>
       <c r="C16">
-        <v>445064</v>
+        <v>2.9338176291037561</v>
       </c>
       <c r="D16">
-        <v>0.4536588060098416</v>
+        <v>3.0980865174840386</v>
       </c>
       <c r="E16">
-        <v>0.25613662600517273</v>
+        <v>12.28695142667083</v>
       </c>
       <c r="F16">
-        <v>0.32148396968841553</v>
+        <v>12.399183438856436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>8.160609382904747</v>
+        <v>13.792680104770113</v>
       </c>
       <c r="B17">
-        <v>9931.6046368634252</v>
+        <v>15.123366250688406</v>
       </c>
       <c r="C17">
-        <v>450772</v>
+        <v>4.1424000240294587</v>
       </c>
       <c r="D17">
-        <v>0.43985757221895194</v>
+        <v>4.0065113973602955</v>
       </c>
       <c r="E17">
-        <v>0.2792818546295166</v>
+        <v>6.5763474836097595</v>
       </c>
       <c r="F17">
-        <v>0.33980107307434082</v>
+        <v>6.0763149178083751</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>9.66705151822792</v>
+        <v>9.590043284496268</v>
       </c>
       <c r="B18">
-        <v>7020.6158311631953</v>
+        <v>8.7959391770808963</v>
       </c>
       <c r="C18">
-        <v>426877</v>
+        <v>3.6474343420031365</v>
       </c>
       <c r="D18">
-        <v>0.45294412624640978</v>
+        <v>3.6788883549607321</v>
       </c>
       <c r="E18">
-        <v>0.28422689437866211</v>
+        <v>12.219593903558403</v>
       </c>
       <c r="F18">
-        <v>0.33354523777961731</v>
+        <v>12.232914017580841</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5.3324203390902358</v>
+        <v>25.504773914708288</v>
       </c>
       <c r="B19">
-        <v>19047.515118634259</v>
+        <v>25.10381748305317</v>
       </c>
       <c r="C19">
-        <v>493396</v>
+        <v>3.8150317965430145</v>
       </c>
       <c r="D19">
-        <v>0.27857394086026821</v>
+        <v>3.8024373986290274</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>20.220277238223403</v>
       </c>
       <c r="F19">
-        <v>0.19560851156711578</v>
+        <v>19.668329848376288</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>7.5736405244929355</v>
+        <v>28.791906713999001</v>
       </c>
       <c r="B20">
-        <v>11368.844030309609</v>
+        <v>29.128795411159039</v>
       </c>
       <c r="C20">
-        <v>444929</v>
+        <v>3.0980420080224125</v>
       </c>
       <c r="D20">
-        <v>0.36573779344907914</v>
+        <v>3.2227212033595927</v>
       </c>
       <c r="E20">
-        <v>0.18138863146305084</v>
+        <v>7.3249876577522066</v>
       </c>
       <c r="F20">
-        <v>0.24274162948131561</v>
+        <v>7.1744494248655046</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>8.1835155245773343</v>
+        <v>23.451289300757786</v>
       </c>
       <c r="B21">
-        <v>9879.3599356192117</v>
+        <v>25.710163539641268</v>
       </c>
       <c r="C21">
-        <v>441284</v>
+        <v>2.9502118526438559</v>
       </c>
       <c r="D21">
-        <v>0.39842016437527467</v>
+        <v>3.0242258466386494</v>
       </c>
       <c r="E21">
-        <v>0.19219034910202026</v>
+        <v>9.7493000996117942</v>
       </c>
       <c r="F21">
-        <v>0.25857728719711304</v>
+        <v>10.170373440934979</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>5.5259760464754626</v>
+        <v>10.258626658358558</v>
       </c>
       <c r="B22">
-        <v>18217.247395833336</v>
+        <v>10.253558931404932</v>
       </c>
       <c r="C22">
-        <v>472911</v>
+        <v>5.5910361539503199</v>
       </c>
       <c r="D22">
-        <v>0.25764679695651704</v>
+        <v>5.4926463749276602</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>17.042135489451468</v>
       </c>
       <c r="F22">
-        <v>0.19150148332118988</v>
+        <v>16.229418503663545</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>3.9870044443194903</v>
+        <v>37.277729061073984</v>
       </c>
       <c r="B23">
-        <v>25964.497169777198</v>
+        <v>38.921903476283717</v>
       </c>
       <c r="C23">
-        <v>544313</v>
+        <v>2.7057806615493303</v>
       </c>
       <c r="D23">
-        <v>0.26957050591466741</v>
+        <v>2.6563354666144856</v>
       </c>
       <c r="E23">
-        <v>0.27084332704544067</v>
+        <v>27.147513484969991</v>
       </c>
       <c r="F23">
-        <v>0.34543797373771667</v>
+        <v>28.140813526830811</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>4.1154859670359274</v>
+        <v>28.971097481143673</v>
       </c>
       <c r="B24">
-        <v>25207.615406177661</v>
+        <v>31.056194050092504</v>
       </c>
       <c r="C24">
-        <v>527569</v>
+        <v>2.550390704177437</v>
       </c>
       <c r="D24">
-        <v>0.21098606329913694</v>
+        <v>2.5452076147737355</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>21.848172274569823</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>20.273697571232997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>3.0117179739350468</v>
+        <v>32.422423932043557</v>
       </c>
       <c r="B25">
-        <v>32501.886058666092</v>
+        <v>31.826647852274892</v>
       </c>
       <c r="C25">
-        <v>582386</v>
+        <v>4.8498465641374189</v>
       </c>
       <c r="D25">
-        <v>0.15319703653272732</v>
+        <v>4.8902489173234391</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>13.372774061356701</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>12.830068084689602</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3.6311640325179968</v>
+        <v>18.374179422955294</v>
       </c>
       <c r="B26">
-        <v>28181.490415219909</v>
+        <v>18.197722571043776</v>
       </c>
       <c r="C26">
-        <v>524610</v>
+        <v>3.1758859292213404</v>
       </c>
       <c r="D26">
-        <v>0.15874513070019858</v>
+        <v>3.1847807316494268</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>14.993340123872898</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>15.762093980641504</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5.5783407406241547</v>
+        <v>26.093241709832263</v>
       </c>
       <c r="B27">
-        <v>17998.91337528935</v>
+        <v>28.56319637358677</v>
       </c>
       <c r="C27">
-        <v>506043</v>
+        <v>2.6778417955977458</v>
       </c>
       <c r="D27">
-        <v>0.3285309395653761</v>
+        <v>2.6661674710852448</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>26.212599415083488</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>24.92750227720628</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5.3307677060170011</v>
+        <v>33.571735392270185</v>
       </c>
       <c r="B28">
-        <v>19054.764702690973</v>
+        <v>35.53854760588171</v>
       </c>
       <c r="C28">
-        <v>496933</v>
+        <v>3.3438917891788962</v>
       </c>
       <c r="D28">
-        <v>0.328697162783126</v>
+        <v>3.3464642550053489</v>
       </c>
       <c r="E28">
-        <v>0.27253639698028564</v>
+        <v>19.765894653117812</v>
       </c>
       <c r="F28">
-        <v>0.344869464635849</v>
+        <v>19.318812549616148</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5.5421869804870685</v>
+        <v>26.380750474610387</v>
       </c>
       <c r="B29">
-        <v>18149.374529803245</v>
+        <v>27.064033502230338</v>
       </c>
       <c r="C29">
-        <v>479802</v>
+        <v>6.2075923085271247</v>
       </c>
       <c r="D29">
-        <v>0.4071510567005292</v>
+        <v>5.9525760416598539</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>35.019275171479272</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>35.836617807798881</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3.0816493510389433</v>
+        <v>41.244175435836247</v>
       </c>
       <c r="B30">
-        <v>31982.722195095477</v>
+        <v>36.981213628174245</v>
       </c>
       <c r="C30">
-        <v>546514</v>
+        <v>2.9874189463782321</v>
       </c>
       <c r="D30">
-        <v>0.10359558015796469</v>
+        <v>3.077517723768354</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>27.234276963054093</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>28.550713924166711</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>5.2627882954397549</v>
+        <v>29.190594969198717</v>
       </c>
       <c r="B31">
-        <v>19355.372386791089</v>
+        <v>29.980894042632546</v>
       </c>
       <c r="C31">
-        <v>503507</v>
+        <v>3.6713398485355828</v>
       </c>
       <c r="D31">
-        <v>0.35754475045732359</v>
+        <v>3.7037490331501766</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>33.668367146184416</v>
       </c>
       <c r="F31">
-        <v>0.28290882706642151</v>
+        <v>32.448183016762279</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>3.7260515932137368</v>
+        <v>45.661707246256441</v>
       </c>
       <c r="B32">
-        <v>27572.44007703993</v>
+        <v>39.461719601477263</v>
       </c>
       <c r="C32">
-        <v>537001</v>
+        <v>3.063521246338663</v>
       </c>
       <c r="D32">
-        <v>0.21916471306810467</v>
+        <v>2.8475083323944075</v>
       </c>
       <c r="E32">
-        <v>0.19430270791053772</v>
+        <v>26.225291448464176</v>
       </c>
       <c r="F32">
-        <v>0.2753700315952301</v>
+        <v>25.076482541036903</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>4.5200655615745831</v>
+        <v>47.653343000560156</v>
       </c>
       <c r="B33">
-        <v>22965.388925057865</v>
+        <v>40.451552804904395</v>
       </c>
       <c r="C33">
-        <v>485966</v>
+        <v>4.0091917338580281</v>
       </c>
       <c r="D33">
-        <v>0.19542145752671361</v>
+        <v>3.8576991973639103</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>42.449436513688845</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>42.192916410931495</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2.9212553626816944</v>
+        <v>40.551336421453108</v>
       </c>
       <c r="B34">
-        <v>33185.993561921299</v>
+        <v>36.705941805584544</v>
       </c>
       <c r="C34">
-        <v>600445</v>
+        <v>4.9486855112876773</v>
       </c>
       <c r="D34">
-        <v>0.1375755150299765</v>
+        <v>5.0558557133895823</v>
       </c>
       <c r="E34">
-        <v>0.20130826532840729</v>
+        <v>31.884488601048783</v>
       </c>
       <c r="F34">
-        <v>0.28801095485687256</v>
+        <v>33.139038433449315</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5.1190985935607722</v>
+        <v>14.980543222340387</v>
       </c>
       <c r="B35">
-        <v>20006.471580222798</v>
+        <v>18.33642478716936</v>
       </c>
       <c r="C35">
-        <v>459852</v>
+        <v>4.0669088573481273</v>
       </c>
       <c r="D35">
-        <v>0.24391049827361413</v>
+        <v>3.9824856820606596</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>21.581950681089545</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>20.8167714086064</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>3.9445031398571002</v>
+        <v>37.29450055819035</v>
       </c>
       <c r="B36">
-        <v>26219.840585214126</v>
+        <v>40.80630132893576</v>
       </c>
       <c r="C36">
-        <v>539974</v>
+        <v>3.7485334821552065</v>
       </c>
       <c r="D36">
-        <v>0.19760611812135107</v>
+        <v>3.8303603598426199</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>44.107501806138274</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>44.405685526800973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>44.810526247609502</v>
+      </c>
+      <c r="B37">
+        <v>38.050580196929566</v>
+      </c>
+      <c r="C37">
+        <v>4.5754529109567654</v>
+      </c>
+      <c r="D37">
+        <v>4.188725905258833</v>
+      </c>
+      <c r="E37">
+        <v>42.527849310516061</v>
+      </c>
+      <c r="F37">
+        <v>40.683902590107571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>29.898797076665193</v>
+      </c>
+      <c r="B38">
+        <v>29.63861032542879</v>
+      </c>
+      <c r="C38">
+        <v>4.0643099204185136</v>
+      </c>
+      <c r="D38">
+        <v>4.0107434756489333</v>
+      </c>
+      <c r="E38">
+        <v>21.182148995172604</v>
+      </c>
+      <c r="F38">
+        <v>21.764911123079987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37.590143266171083</v>
+      </c>
+      <c r="B39">
+        <v>39.290911142165022</v>
+      </c>
+      <c r="C39">
+        <v>3.1303944858146346</v>
+      </c>
+      <c r="D39">
+        <v>3.1728337401018014</v>
+      </c>
+      <c r="E39">
+        <v>24.087623702271806</v>
+      </c>
+      <c r="F39">
+        <v>26.297545112175463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>35.615998779806333</v>
+      </c>
+      <c r="B40">
+        <v>35.419201503692975</v>
+      </c>
+      <c r="C40">
+        <v>3.4132200869607661</v>
+      </c>
+      <c r="D40">
+        <v>3.2950479904074559</v>
+      </c>
+      <c r="E40">
+        <v>20.713348242555419</v>
+      </c>
+      <c r="F40">
+        <v>20.942020428902975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>22.016227837690934</v>
+      </c>
+      <c r="B41">
+        <v>22.588318006171733</v>
+      </c>
+      <c r="C41">
+        <v>3.8574843336758895</v>
+      </c>
+      <c r="D41">
+        <v>3.7640216170907523</v>
+      </c>
+      <c r="E41">
+        <v>24.41442171453874</v>
+      </c>
+      <c r="F41">
+        <v>23.438792104485692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>36.24194204723095</v>
+      </c>
+      <c r="B42">
+        <v>30.647259047836474</v>
+      </c>
+      <c r="C42">
+        <v>6.0866459125867438</v>
+      </c>
+      <c r="D42">
+        <v>4.0150673602656273</v>
+      </c>
+      <c r="E42">
+        <v>14.711774008295219</v>
+      </c>
+      <c r="F42">
+        <v>15.200268920248005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>22.954196869968236</v>
+      </c>
+      <c r="B43">
+        <v>24.659154615058448</v>
+      </c>
+      <c r="C43">
+        <v>2.5395165084780733</v>
+      </c>
+      <c r="D43">
+        <v>2.3843422212107521</v>
+      </c>
+      <c r="E43">
+        <v>29.583070958979292</v>
+      </c>
+      <c r="F43">
+        <v>28.213498018716283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>30.42478523706643</v>
+      </c>
+      <c r="B44">
+        <v>29.870488570697628</v>
+      </c>
+      <c r="C44">
+        <v>2.6194683580176341</v>
+      </c>
+      <c r="D44">
+        <v>2.6337844417123315</v>
+      </c>
+      <c r="E44">
+        <v>26.676478700517393</v>
+      </c>
+      <c r="F44">
+        <v>26.222191768457233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>41.155668752434906</v>
+      </c>
+      <c r="B45">
+        <v>34.118009167490371</v>
+      </c>
+      <c r="C45">
+        <v>4.5941292190695453</v>
+      </c>
+      <c r="D45">
+        <v>4.6292173614252414</v>
+      </c>
+      <c r="E45">
+        <v>38.505192758407162</v>
+      </c>
+      <c r="F45">
+        <v>41.728374805099911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>32.650636121419957</v>
+      </c>
+      <c r="B46">
+        <v>32.674136736787794</v>
+      </c>
+      <c r="C46">
+        <v>2.49272825723247</v>
+      </c>
+      <c r="D46">
+        <v>2.7626763761498183</v>
+      </c>
+      <c r="E46">
+        <v>19.632541467800401</v>
+      </c>
+      <c r="F46">
+        <v>18.224442429385022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>33.230968779586938</v>
+      </c>
+      <c r="B47">
+        <v>32.94476224246435</v>
+      </c>
+      <c r="C47">
+        <v>3.4174311496234568</v>
+      </c>
+      <c r="D47">
+        <v>3.1449090440568148</v>
+      </c>
+      <c r="E47">
+        <v>46.107257728908024</v>
+      </c>
+      <c r="F47">
+        <v>45.783465701886882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>22.886001802520578</v>
+      </c>
+      <c r="B48">
+        <v>24.808115809351051</v>
+      </c>
+      <c r="C48">
+        <v>4.1055702541002717</v>
+      </c>
+      <c r="D48">
+        <v>3.85581149067264</v>
+      </c>
+      <c r="E48">
+        <v>38.2187000379081</v>
+      </c>
+      <c r="F48">
+        <v>38.147831578025489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>21.448019842813224</v>
+      </c>
+      <c r="B49">
+        <v>21.869468248361486</v>
+      </c>
+      <c r="C49">
+        <v>3.0757547651804535</v>
+      </c>
+      <c r="D49">
+        <v>2.9103020984790673</v>
+      </c>
+      <c r="E49">
+        <v>18.167476861673638</v>
+      </c>
+      <c r="F49">
+        <v>20.951108188746357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>21.939873387529218</v>
+      </c>
+      <c r="B50">
+        <v>25.804510303977512</v>
+      </c>
+      <c r="C50">
+        <v>2.91918383871747</v>
+      </c>
+      <c r="D50">
+        <v>3.0063181250585065</v>
+      </c>
+      <c r="E50">
+        <v>21.132420604436891</v>
+      </c>
+      <c r="F50">
+        <v>19.184728280758463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>29.240187775250909</v>
+      </c>
+      <c r="B51">
+        <v>31.797152982752664</v>
+      </c>
+      <c r="C51">
+        <v>3.075018981023069</v>
+      </c>
+      <c r="D51">
+        <v>3.0272267086870204</v>
+      </c>
+      <c r="E51">
+        <v>30.782418360142298</v>
+      </c>
+      <c r="F51">
+        <v>29.954120624689441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>33.411829124856055</v>
+      </c>
+      <c r="B52">
+        <v>32.226891671718505</v>
+      </c>
+      <c r="C52">
+        <v>2.7746882246028015</v>
+      </c>
+      <c r="D52">
+        <v>2.9320184058997554</v>
+      </c>
+      <c r="E52">
+        <v>34.178870289238681</v>
+      </c>
+      <c r="F52">
+        <v>34.94989865625238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>44.630724102848312</v>
+      </c>
+      <c r="B53">
+        <v>35.673444459344864</v>
+      </c>
+      <c r="C53">
+        <v>3.8826222111574311</v>
+      </c>
+      <c r="D53">
+        <v>3.3701951920817166</v>
+      </c>
+      <c r="E53">
+        <v>21.00089296382863</v>
+      </c>
+      <c r="F53">
+        <v>19.971775758455138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>25.173849473933501</v>
+      </c>
+      <c r="B54">
+        <v>22.285158086881104</v>
+      </c>
+      <c r="C54">
+        <v>2.71853539219688</v>
+      </c>
+      <c r="D54">
+        <v>2.8281188882211565</v>
+      </c>
+      <c r="E54">
+        <v>33.351056397440956</v>
+      </c>
+      <c r="F54">
+        <v>34.304282165048143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>40.965406061756013</v>
+      </c>
+      <c r="B55">
+        <v>34.780519634079781</v>
+      </c>
+      <c r="C55">
+        <v>5.0193711007997139</v>
+      </c>
+      <c r="D55">
+        <v>4.053294832181928</v>
+      </c>
+      <c r="E55">
+        <v>31.72718851567614</v>
+      </c>
+      <c r="F55">
+        <v>31.506349611153528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>48.611171485001371</v>
+      </c>
+      <c r="B56">
+        <v>45.399340063547676</v>
+      </c>
+      <c r="C56">
+        <v>5.6621247568071</v>
+      </c>
+      <c r="D56">
+        <v>5.1854685092399482</v>
+      </c>
+      <c r="E56">
+        <v>53.295666524385034</v>
+      </c>
+      <c r="F56">
+        <v>51.775611458317016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>26.670958128924386</v>
+      </c>
+      <c r="B57">
+        <v>25.702077124625788</v>
+      </c>
+      <c r="C57">
+        <v>3.0760540600501454</v>
+      </c>
+      <c r="D57">
+        <v>3.0818501620959804</v>
+      </c>
+      <c r="E57">
+        <v>10.209779378798874</v>
+      </c>
+      <c r="F57">
+        <v>10.958547064771187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>47.355338864300371</v>
+      </c>
+      <c r="B58">
+        <v>41.234692750413316</v>
+      </c>
+      <c r="C58">
+        <v>5.0038867355152794</v>
+      </c>
+      <c r="D58">
+        <v>4.473848283920792</v>
+      </c>
+      <c r="E58">
+        <v>34.156539778424545</v>
+      </c>
+      <c r="F58">
+        <v>34.268335648745122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>41.777055774557461</v>
+      </c>
+      <c r="B59">
+        <v>42.631801156947191</v>
+      </c>
+      <c r="C59">
+        <v>3.341752623116331</v>
+      </c>
+      <c r="D59">
+        <v>3.1330696253903589</v>
+      </c>
+      <c r="E59">
+        <v>41.508186285039983</v>
+      </c>
+      <c r="F59">
+        <v>39.264633129695895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>29.920193441122272</v>
+      </c>
+      <c r="B60">
+        <v>33.252989770875445</v>
+      </c>
+      <c r="C60">
+        <v>4.2931706180683484</v>
+      </c>
+      <c r="D60">
+        <v>4.0609668107773587</v>
+      </c>
+      <c r="E60">
+        <v>31.420026730857309</v>
+      </c>
+      <c r="F60">
+        <v>31.161171723811321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>35.951166361730721</v>
+      </c>
+      <c r="B61">
+        <v>41.012740411867433</v>
+      </c>
+      <c r="C61">
+        <v>4.216356439444545</v>
+      </c>
+      <c r="D61">
+        <v>3.9174195439482697</v>
+      </c>
+      <c r="E61">
+        <v>55.098087829602363</v>
+      </c>
+      <c r="F61">
+        <v>53.646640412543775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>32.033237421297287</v>
+      </c>
+      <c r="B62">
+        <v>34.875396663538552</v>
+      </c>
+      <c r="C62">
+        <v>2.7294415786704178</v>
+      </c>
+      <c r="D62">
+        <v>2.9642418085966655</v>
+      </c>
+      <c r="E62">
+        <v>37.906255662465618</v>
+      </c>
+      <c r="F62">
+        <v>39.239431423770448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>48.488417989011083</v>
+      </c>
+      <c r="B63">
+        <v>42.05550399067976</v>
+      </c>
+      <c r="C63">
+        <v>6.896066082340008</v>
+      </c>
+      <c r="D63">
+        <v>6.129801529104367</v>
+      </c>
+      <c r="E63">
+        <v>24.248402685084777</v>
+      </c>
+      <c r="F63">
+        <v>25.046701102826042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>27.094880875144995</v>
+      </c>
+      <c r="B64">
+        <v>27.633418166695741</v>
+      </c>
+      <c r="C64">
+        <v>6.3030387100245449</v>
+      </c>
+      <c r="D64">
+        <v>6.1461919992167475</v>
+      </c>
+      <c r="E64">
+        <v>24.416126679920431</v>
+      </c>
+      <c r="F64">
+        <v>30.946641317009831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>28.342148190260517</v>
+      </c>
+      <c r="B65">
+        <v>29.273814239844221</v>
+      </c>
+      <c r="C65">
+        <v>2.8545698071860532</v>
+      </c>
+      <c r="D65">
+        <v>2.961832120434809</v>
+      </c>
+      <c r="E65">
+        <v>20.424751770517975</v>
+      </c>
+      <c r="F65">
+        <v>20.201826888456139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>24.84792284016563</v>
+      </c>
+      <c r="B66">
+        <v>24.840577359353205</v>
+      </c>
+      <c r="C66">
+        <v>2.4304526472857035</v>
+      </c>
+      <c r="D66">
+        <v>2.5477048542350653</v>
+      </c>
+      <c r="E66">
+        <v>16.724907148304091</v>
+      </c>
+      <c r="F66">
+        <v>16.949737608338701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>24.519356898716605</v>
+      </c>
+      <c r="B67">
+        <v>21.234677710786414</v>
+      </c>
+      <c r="C67">
+        <v>2.6469777443914051</v>
+      </c>
+      <c r="D67">
+        <v>2.8582347198643854</v>
+      </c>
+      <c r="E67">
+        <v>22.44601676242107</v>
+      </c>
+      <c r="F67">
+        <v>20.96391556392015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>24.879843030783384</v>
+      </c>
+      <c r="B68">
+        <v>28.957909858917091</v>
+      </c>
+      <c r="C68">
+        <v>3.3538013343220285</v>
+      </c>
+      <c r="D68">
+        <v>3.4273475173429717</v>
+      </c>
+      <c r="E68">
+        <v>35.678191289012275</v>
+      </c>
+      <c r="F68">
+        <v>33.732349988157438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>26.663684172834095</v>
+      </c>
+      <c r="B69">
+        <v>23.228606290289573</v>
+      </c>
+      <c r="C69">
+        <v>3.0449201794334102</v>
+      </c>
+      <c r="D69">
+        <v>3.0428714587058932</v>
+      </c>
+      <c r="E69">
+        <v>28.298254786080477</v>
+      </c>
+      <c r="F69">
+        <v>31.459776054727111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>44.452148263684514</v>
+      </c>
+      <c r="B70">
+        <v>35.258840549787109</v>
+      </c>
+      <c r="C70">
+        <v>5.4322509726935566</v>
+      </c>
+      <c r="D70">
+        <v>3.9804763966876262</v>
+      </c>
+      <c r="E70">
+        <v>21.489158488906039</v>
+      </c>
+      <c r="F70">
+        <v>23.14649016432681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>27.056774328776513</v>
+      </c>
+      <c r="B71">
+        <v>28.891388619457516</v>
+      </c>
+      <c r="C71">
+        <v>2.7233448562466136</v>
+      </c>
+      <c r="D71">
+        <v>2.5573994801473101</v>
+      </c>
+      <c r="E71">
+        <v>27.019211966642594</v>
+      </c>
+      <c r="F71">
+        <v>25.101228923122559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>30.418766848382628</v>
+      </c>
+      <c r="B72">
+        <v>33.252928374789199</v>
+      </c>
+      <c r="C72">
+        <v>3.106963207847198</v>
+      </c>
+      <c r="D72">
+        <v>3.0310205901497826</v>
+      </c>
+      <c r="E72">
+        <v>47.902134132108671</v>
+      </c>
+      <c r="F72">
+        <v>47.671684354686469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>28.507141115365208</v>
+      </c>
+      <c r="B73">
+        <v>27.101107676697747</v>
+      </c>
+      <c r="C73">
+        <v>2.7085235383257804</v>
+      </c>
+      <c r="D73">
+        <v>2.8304173601967006</v>
+      </c>
+      <c r="E73">
+        <v>24.87737582137645</v>
+      </c>
+      <c r="F73">
+        <v>21.863847501727353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>25.013253742848882</v>
+      </c>
+      <c r="B74">
+        <v>26.89452712084606</v>
+      </c>
+      <c r="C74">
+        <v>3.5476935527356996</v>
+      </c>
+      <c r="D74">
+        <v>3.5230640333320173</v>
+      </c>
+      <c r="E74">
+        <v>21.885180068858663</v>
+      </c>
+      <c r="F74">
+        <v>21.388959401841806</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>40.39957412009889</v>
+      </c>
+      <c r="B75">
+        <v>37.984382976498239</v>
+      </c>
+      <c r="C75">
+        <v>2.8553100661239976</v>
+      </c>
+      <c r="D75">
+        <v>2.7037393376727969</v>
+      </c>
+      <c r="E75">
+        <v>45.600591972883173</v>
+      </c>
+      <c r="F75">
+        <v>43.615677696515746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>14.131257207687202</v>
+      </c>
+      <c r="B76">
+        <v>16.887064453298894</v>
+      </c>
+      <c r="C76">
+        <v>3.2235821555941917</v>
+      </c>
+      <c r="D76">
+        <v>3.2706171773688348</v>
+      </c>
+      <c r="E76">
+        <v>13.821935119811247</v>
+      </c>
+      <c r="F76">
+        <v>15.44046966783317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>33.521856236298909</v>
+      </c>
+      <c r="B77">
+        <v>26.396152064356826</v>
+      </c>
+      <c r="C77">
+        <v>5.2393756289966369</v>
+      </c>
+      <c r="D77">
+        <v>5.0447315193275948</v>
+      </c>
+      <c r="E77">
+        <v>37.476463046593764</v>
+      </c>
+      <c r="F77">
+        <v>37.59463487502962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>22.644477615078642</v>
+      </c>
+      <c r="B78">
+        <v>21.823935449860212</v>
+      </c>
+      <c r="C78">
+        <v>3.9055087914448636</v>
+      </c>
+      <c r="D78">
+        <v>3.9829030156684055</v>
+      </c>
+      <c r="E78">
+        <v>21.23840453346509</v>
+      </c>
+      <c r="F78">
+        <v>18.679715811566812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>35.914406025450219</v>
+      </c>
+      <c r="B79">
+        <v>31.850059871549448</v>
+      </c>
+      <c r="C79">
+        <v>3.2473651815476496</v>
+      </c>
+      <c r="D79">
+        <v>2.9394926063005236</v>
+      </c>
+      <c r="E79">
+        <v>23.094577945796431</v>
+      </c>
+      <c r="F79">
+        <v>22.873783008289301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>44.762635964958747</v>
+      </c>
+      <c r="B80">
+        <v>44.611620992934235</v>
+      </c>
+      <c r="C80">
+        <v>3.46526212975541</v>
+      </c>
+      <c r="D80">
+        <v>3.2660062562224801</v>
+      </c>
+      <c r="E80">
+        <v>55.637342522042601</v>
+      </c>
+      <c r="F80">
+        <v>56.600944367014137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>27.008425779591803</v>
+      </c>
+      <c r="B81">
+        <v>26.004316466950158</v>
+      </c>
+      <c r="C81">
+        <v>3.3542707421153675</v>
+      </c>
+      <c r="D81">
+        <v>3.0030832730645054</v>
+      </c>
+      <c r="E81">
+        <v>38.491728682514093</v>
+      </c>
+      <c r="F81">
+        <v>38.799331726289225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>14.047366458440486</v>
+      </c>
+      <c r="B82">
+        <v>14.056929077292445</v>
+      </c>
+      <c r="C82">
+        <v>3.4513067141881248</v>
+      </c>
+      <c r="D82">
+        <v>3.5034201212851839</v>
+      </c>
+      <c r="E82">
+        <v>28.079414809782737</v>
+      </c>
+      <c r="F82">
+        <v>26.85341641371274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>32.64658873086006</v>
+      </c>
+      <c r="B83">
+        <v>36.493349666920864</v>
+      </c>
+      <c r="C83">
+        <v>3.8094085102975788</v>
+      </c>
+      <c r="D83">
+        <v>3.6720538535737712</v>
+      </c>
+      <c r="E83">
+        <v>29.924474747395113</v>
+      </c>
+      <c r="F83">
+        <v>29.446617444127199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>25.58859246384872</v>
+      </c>
+      <c r="B84">
+        <v>26.218535164286759</v>
+      </c>
+      <c r="C84">
+        <v>2.9382571628242928</v>
+      </c>
+      <c r="D84">
+        <v>2.5629640566274747</v>
+      </c>
+      <c r="E84">
+        <v>19.589705415094155</v>
+      </c>
+      <c r="F84">
+        <v>19.40266826932719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>22.740578799796758</v>
+      </c>
+      <c r="B85">
+        <v>20.525544417359999</v>
+      </c>
+      <c r="C85">
+        <v>2.9967828399203271</v>
+      </c>
+      <c r="D85">
+        <v>2.9314909956883746</v>
+      </c>
+      <c r="E85">
+        <v>16.086319915291419</v>
+      </c>
+      <c r="F85">
+        <v>16.661969280124588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>28.475773086432866</v>
+      </c>
+      <c r="B86">
+        <v>28.233134077342193</v>
+      </c>
+      <c r="C86">
+        <v>3.2529538071957744</v>
+      </c>
+      <c r="D86">
+        <v>3.2254032668259063</v>
+      </c>
+      <c r="E86">
+        <v>14.465993787407669</v>
+      </c>
+      <c r="F86">
+        <v>12.927866104396779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>23.55900989235235</v>
+      </c>
+      <c r="B87">
+        <v>21.527074106023484</v>
+      </c>
+      <c r="C87">
+        <v>3.3215998440700574</v>
+      </c>
+      <c r="D87">
+        <v>3.1688592090195078</v>
+      </c>
+      <c r="E87">
+        <v>27.217263625101477</v>
+      </c>
+      <c r="F87">
+        <v>28.514686282446249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>25.339737156126397</v>
+      </c>
+      <c r="B88">
+        <v>24.706838355456739</v>
+      </c>
+      <c r="C88">
+        <v>3.2195891120298161</v>
+      </c>
+      <c r="D88">
+        <v>3.1733761781841801</v>
+      </c>
+      <c r="E88">
+        <v>13.170676696661769</v>
+      </c>
+      <c r="F88">
+        <v>12.796497097963838</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>41.858889941212823</v>
+      </c>
+      <c r="B89">
+        <v>40.675356608586831</v>
+      </c>
+      <c r="C89">
+        <v>3.1679033157232062</v>
+      </c>
+      <c r="D89">
+        <v>3.3067559458713367</v>
+      </c>
+      <c r="E89">
+        <v>37.963853308501953</v>
+      </c>
+      <c r="F89">
+        <v>38.266925595881155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>18.659253732860684</v>
+      </c>
+      <c r="B90">
+        <v>18.223805327704305</v>
+      </c>
+      <c r="C90">
+        <v>2.9519696589464495</v>
+      </c>
+      <c r="D90">
+        <v>2.8600612126864551</v>
+      </c>
+      <c r="E90">
+        <v>19.104797926701128</v>
+      </c>
+      <c r="F90">
+        <v>17.720783230415389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>17.789526350733865</v>
+      </c>
+      <c r="B91">
+        <v>19.970464850426833</v>
+      </c>
+      <c r="C91">
+        <v>4.0963822705668322</v>
+      </c>
+      <c r="D91">
+        <v>4.0554041756945232</v>
+      </c>
+      <c r="E91">
+        <v>18.450423515185488</v>
+      </c>
+      <c r="F91">
+        <v>17.400339031236317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>30.348965308552657</v>
+      </c>
+      <c r="B92">
+        <v>29.42363548116824</v>
+      </c>
+      <c r="C92">
+        <v>2.9447419693356558</v>
+      </c>
+      <c r="D92">
+        <v>3.141137980280889</v>
+      </c>
+      <c r="E92">
+        <v>22.44660659098426</v>
+      </c>
+      <c r="F92">
+        <v>21.698800180442532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>33.310766017548147</v>
+      </c>
+      <c r="B93">
+        <v>38.227406624139135</v>
+      </c>
+      <c r="C93">
+        <v>4.5200803298930063</v>
+      </c>
+      <c r="D93">
+        <v>4.1162073436565212</v>
+      </c>
+      <c r="E93">
+        <v>24.658550510292571</v>
+      </c>
+      <c r="F93">
+        <v>26.2450375548502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>32.883785149025826</v>
+      </c>
+      <c r="B94">
+        <v>33.283507784222842</v>
+      </c>
+      <c r="C94">
+        <v>3.1912633521299822</v>
+      </c>
+      <c r="D94">
+        <v>2.9707644569846021</v>
+      </c>
+      <c r="E94">
+        <v>14.524931928011805</v>
+      </c>
+      <c r="F94">
+        <v>14.815425472950535</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>33.475773975433079</v>
+      </c>
+      <c r="B95">
+        <v>40.385685807540199</v>
+      </c>
+      <c r="C95">
+        <v>3.2788243603430072</v>
+      </c>
+      <c r="D95">
+        <v>3.4178860977516785</v>
+      </c>
+      <c r="E95">
+        <v>25.391203173148046</v>
+      </c>
+      <c r="F95">
+        <v>26.156612683299159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>33.216319406159528</v>
+      </c>
+      <c r="B96">
+        <v>33.639604896387027</v>
+      </c>
+      <c r="C96">
+        <v>2.7478112303840039</v>
+      </c>
+      <c r="D96">
+        <v>2.9541439030689252</v>
+      </c>
+      <c r="E96">
+        <v>26.811979572474332</v>
+      </c>
+      <c r="F96">
+        <v>27.331793148556315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>34.588601876803516</v>
+      </c>
+      <c r="B97">
+        <v>31.78529027564705</v>
+      </c>
+      <c r="C97">
+        <v>5.1368612307833015</v>
+      </c>
+      <c r="D97">
+        <v>4.8611234933506893</v>
+      </c>
+      <c r="E97">
+        <v>33.346757791939943</v>
+      </c>
+      <c r="F97">
+        <v>32.552638709734453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>41.043512703450595</v>
+      </c>
+      <c r="B98">
+        <v>36.971132623249218</v>
+      </c>
+      <c r="C98">
+        <v>8.5168648705569403</v>
+      </c>
+      <c r="D98">
+        <v>7.7078768566437956</v>
+      </c>
+      <c r="E98">
+        <v>42.918800120883745</v>
+      </c>
+      <c r="F98">
+        <v>46.642168125784899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>47.31260398013287</v>
+      </c>
+      <c r="B99">
+        <v>47.707851619546894</v>
+      </c>
+      <c r="C99">
+        <v>3.5840151632386461</v>
+      </c>
+      <c r="D99">
+        <v>3.3657034075660932</v>
+      </c>
+      <c r="E99">
+        <v>52.719891831720808</v>
+      </c>
+      <c r="F99">
+        <v>51.224381565226828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>20.245792764831279</v>
+      </c>
+      <c r="B100">
+        <v>19.775405878260962</v>
+      </c>
+      <c r="C100">
+        <v>2.8146620485682243</v>
+      </c>
+      <c r="D100">
+        <v>2.8575759887780103</v>
+      </c>
+      <c r="E100">
+        <v>28.747641638881628</v>
+      </c>
+      <c r="F100">
+        <v>25.103690743334194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>15.28529360474236</v>
+      </c>
+      <c r="B101">
+        <v>15.644315777197843</v>
+      </c>
+      <c r="C101">
+        <v>2.8124173485434714</v>
+      </c>
+      <c r="D101">
+        <v>2.9983630527599257</v>
+      </c>
+      <c r="E101">
+        <v>17.142901565668573</v>
+      </c>
+      <c r="F101">
+        <v>16.267751686028042</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>24.273248103273772</v>
+      </c>
+      <c r="B102">
+        <v>22.020764594340847</v>
+      </c>
+      <c r="C102">
+        <v>5.5132309464730946</v>
+      </c>
+      <c r="D102">
+        <v>5.0259501237339901</v>
+      </c>
+      <c r="E102">
+        <v>13.424967682406832</v>
+      </c>
+      <c r="F102">
+        <v>13.9578071476473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>21.345518684295961</v>
+      </c>
+      <c r="B103">
+        <v>9.9011041550938756</v>
+      </c>
+      <c r="C103">
+        <v>6.8150801484344106</v>
+      </c>
+      <c r="D103">
+        <v>6.1424296186859468</v>
+      </c>
+      <c r="E103">
+        <v>21.470005223339392</v>
+      </c>
+      <c r="F103">
+        <v>21.626594482522496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>24.412946727945076</v>
+      </c>
+      <c r="B104">
+        <v>26.690783282267738</v>
+      </c>
+      <c r="C104">
+        <v>5.8492242048793255</v>
+      </c>
+      <c r="D104">
+        <v>5.646695273990515</v>
+      </c>
+      <c r="E104">
+        <v>8.7529994704591711</v>
+      </c>
+      <c r="F104">
+        <v>8.9605191668755211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>29.947800261663744</v>
+      </c>
+      <c r="B105">
+        <v>25.164189386342237</v>
+      </c>
+      <c r="C105">
+        <v>5.9992637216378766</v>
+      </c>
+      <c r="D105">
+        <v>5.7142414715491334</v>
+      </c>
+      <c r="E105">
+        <v>14.51822346998714</v>
+      </c>
+      <c r="F105">
+        <v>13.819414428182109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>39.918781080510882</v>
+      </c>
+      <c r="B106">
+        <v>35.140911805645452</v>
+      </c>
+      <c r="C106">
+        <v>5.6929495659266998</v>
+      </c>
+      <c r="D106">
+        <v>5.1910011877733533</v>
+      </c>
+      <c r="E106">
+        <v>34.961215785443329</v>
+      </c>
+      <c r="F106">
+        <v>35.951110207936424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>23.519500478480708</v>
+      </c>
+      <c r="B107">
+        <v>23.84902751054031</v>
+      </c>
+      <c r="C107">
+        <v>2.8290447690361678</v>
+      </c>
+      <c r="D107">
+        <v>2.8722811231290484</v>
+      </c>
+      <c r="E107">
+        <v>16.429963850930321</v>
+      </c>
+      <c r="F107">
+        <v>14.884468685911569</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>15.313569106836106</v>
+      </c>
+      <c r="B108">
+        <v>15.53546875076519</v>
+      </c>
+      <c r="C108">
+        <v>3.0123899418344391</v>
+      </c>
+      <c r="D108">
+        <v>2.9445784776788559</v>
+      </c>
+      <c r="E108">
+        <v>23.666598776307406</v>
+      </c>
+      <c r="F108">
+        <v>21.873276241652579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>26.68209946081646</v>
+      </c>
+      <c r="B109">
+        <v>27.096579861680173</v>
+      </c>
+      <c r="C109">
+        <v>2.664184739519484</v>
+      </c>
+      <c r="D109">
+        <v>2.5821920394074391</v>
+      </c>
+      <c r="E109">
+        <v>25.254724635296149</v>
+      </c>
+      <c r="F109">
+        <v>23.797736792846113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>16.972373716503476</v>
+      </c>
+      <c r="B110">
+        <v>16.700643184356679</v>
+      </c>
+      <c r="C110">
+        <v>3.2358329233962362</v>
+      </c>
+      <c r="D110">
+        <v>3.2242472758561518</v>
+      </c>
+      <c r="E110">
+        <v>12.618694654865582</v>
+      </c>
+      <c r="F110">
+        <v>12.550490888605861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>20.204977989459344</v>
+      </c>
+      <c r="B111">
+        <v>20.116470885255275</v>
+      </c>
+      <c r="C111">
+        <v>4.4239816020118852</v>
+      </c>
+      <c r="D111">
+        <v>4.4204394596262242</v>
+      </c>
+      <c r="E111">
+        <v>17.111945899795312</v>
+      </c>
+      <c r="F111">
+        <v>17.493903116134334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>24.386329625448219</v>
+      </c>
+      <c r="B112">
+        <v>24.753250851311556</v>
+      </c>
+      <c r="C112">
+        <v>4.9863835253515116</v>
+      </c>
+      <c r="D112">
+        <v>4.940972814959002</v>
+      </c>
+      <c r="E112">
+        <v>8.0294483719538103</v>
+      </c>
+      <c r="F112">
+        <v>7.5864721411553262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>21.273986170419647</v>
+      </c>
+      <c r="B113">
+        <v>21.04950338879063</v>
+      </c>
+      <c r="C113">
+        <v>2.4428486298303795</v>
+      </c>
+      <c r="D113">
+        <v>2.4079739427475984</v>
+      </c>
+      <c r="E113">
+        <v>13.183893226319695</v>
+      </c>
+      <c r="F113">
+        <v>12.729711275506798</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>9.6344851362124686</v>
+      </c>
+      <c r="B114">
+        <v>9.5538023796606666</v>
+      </c>
+      <c r="C114">
+        <v>2.9864662907494148</v>
+      </c>
+      <c r="D114">
+        <v>3.0871140406963051</v>
+      </c>
+      <c r="E114">
+        <v>16.708089775512757</v>
+      </c>
+      <c r="F114">
+        <v>15.754776696058467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>34.738291901613358</v>
+      </c>
+      <c r="B115">
+        <v>34.849366599543337</v>
+      </c>
+      <c r="C115">
+        <v>5.4122692721533561</v>
+      </c>
+      <c r="D115">
+        <v>5.3424746326897088</v>
+      </c>
+      <c r="E115">
+        <v>22.763985569012824</v>
+      </c>
+      <c r="F115">
+        <v>23.144369821033681</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>21.921831148452675</v>
+      </c>
+      <c r="B116">
+        <v>20.343746077090064</v>
+      </c>
+      <c r="C116">
+        <v>2.9338176291037561</v>
+      </c>
+      <c r="D116">
+        <v>3.0980865174840386</v>
+      </c>
+      <c r="E116">
+        <v>12.28695142667083</v>
+      </c>
+      <c r="F116">
+        <v>12.399183438856436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>13.792680104770113</v>
+      </c>
+      <c r="B117">
+        <v>15.123366250688406</v>
+      </c>
+      <c r="C117">
+        <v>4.1424000240294587</v>
+      </c>
+      <c r="D117">
+        <v>4.0065113973602955</v>
+      </c>
+      <c r="E117">
+        <v>6.5763474836097595</v>
+      </c>
+      <c r="F117">
+        <v>6.0763149178083751</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>9.590043284496268</v>
+      </c>
+      <c r="B118">
+        <v>8.7959391770808963</v>
+      </c>
+      <c r="C118">
+        <v>3.6474343420031365</v>
+      </c>
+      <c r="D118">
+        <v>3.6788883549607321</v>
+      </c>
+      <c r="E118">
+        <v>12.219593903558403</v>
+      </c>
+      <c r="F118">
+        <v>12.232914017580841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>25.504773914708288</v>
+      </c>
+      <c r="B119">
+        <v>25.10381748305317</v>
+      </c>
+      <c r="C119">
+        <v>3.8150317965430145</v>
+      </c>
+      <c r="D119">
+        <v>3.8024373986290274</v>
+      </c>
+      <c r="E119">
+        <v>20.220277238223403</v>
+      </c>
+      <c r="F119">
+        <v>19.668329848376288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>28.791906713999001</v>
+      </c>
+      <c r="B120">
+        <v>29.128795411159039</v>
+      </c>
+      <c r="C120">
+        <v>3.0980420080224125</v>
+      </c>
+      <c r="D120">
+        <v>3.2227212033595927</v>
+      </c>
+      <c r="E120">
+        <v>7.3249876577522066</v>
+      </c>
+      <c r="F120">
+        <v>7.1744494248655046</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>23.451289300757786</v>
+      </c>
+      <c r="B121">
+        <v>25.710163539641268</v>
+      </c>
+      <c r="C121">
+        <v>2.9502118526438559</v>
+      </c>
+      <c r="D121">
+        <v>3.0242258466386494</v>
+      </c>
+      <c r="E121">
+        <v>9.7493000996117942</v>
+      </c>
+      <c r="F121">
+        <v>10.170373440934979</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>10.258626658358558</v>
+      </c>
+      <c r="B122">
+        <v>10.253558931404932</v>
+      </c>
+      <c r="C122">
+        <v>5.5910361539503199</v>
+      </c>
+      <c r="D122">
+        <v>5.4926463749276602</v>
+      </c>
+      <c r="E122">
+        <v>17.042135489451468</v>
+      </c>
+      <c r="F122">
+        <v>16.229418503663545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>37.277729061073984</v>
+      </c>
+      <c r="B123">
+        <v>38.921903476283717</v>
+      </c>
+      <c r="C123">
+        <v>2.7057806615493303</v>
+      </c>
+      <c r="D123">
+        <v>2.6563354666144856</v>
+      </c>
+      <c r="E123">
+        <v>27.147513484969991</v>
+      </c>
+      <c r="F123">
+        <v>28.140813526830811</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>28.971097481143673</v>
+      </c>
+      <c r="B124">
+        <v>31.056194050092504</v>
+      </c>
+      <c r="C124">
+        <v>2.550390704177437</v>
+      </c>
+      <c r="D124">
+        <v>2.5452076147737355</v>
+      </c>
+      <c r="E124">
+        <v>21.848172274569823</v>
+      </c>
+      <c r="F124">
+        <v>20.273697571232997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>32.422423932043557</v>
+      </c>
+      <c r="B125">
+        <v>31.826647852274892</v>
+      </c>
+      <c r="C125">
+        <v>4.8498465641374189</v>
+      </c>
+      <c r="D125">
+        <v>4.8902489173234391</v>
+      </c>
+      <c r="E125">
+        <v>13.372774061356701</v>
+      </c>
+      <c r="F125">
+        <v>12.830068084689602</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>18.374179422955294</v>
+      </c>
+      <c r="B126">
+        <v>18.197722571043776</v>
+      </c>
+      <c r="C126">
+        <v>3.1758859292213404</v>
+      </c>
+      <c r="D126">
+        <v>3.1847807316494268</v>
+      </c>
+      <c r="E126">
+        <v>14.993340123872898</v>
+      </c>
+      <c r="F126">
+        <v>15.762093980641504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>26.093241709832263</v>
+      </c>
+      <c r="B127">
+        <v>28.56319637358677</v>
+      </c>
+      <c r="C127">
+        <v>2.6778417955977458</v>
+      </c>
+      <c r="D127">
+        <v>2.6661674710852448</v>
+      </c>
+      <c r="E127">
+        <v>26.212599415083488</v>
+      </c>
+      <c r="F127">
+        <v>24.92750227720628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>33.571735392270185</v>
+      </c>
+      <c r="B128">
+        <v>35.53854760588171</v>
+      </c>
+      <c r="C128">
+        <v>3.3438917891788962</v>
+      </c>
+      <c r="D128">
+        <v>3.3464642550053489</v>
+      </c>
+      <c r="E128">
+        <v>19.765894653117812</v>
+      </c>
+      <c r="F128">
+        <v>19.318812549616148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>26.380750474610387</v>
+      </c>
+      <c r="B129">
+        <v>27.064033502230338</v>
+      </c>
+      <c r="C129">
+        <v>6.2075923085271247</v>
+      </c>
+      <c r="D129">
+        <v>5.9525760416598539</v>
+      </c>
+      <c r="E129">
+        <v>35.019275171479272</v>
+      </c>
+      <c r="F129">
+        <v>35.836617807798881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>41.244175435836247</v>
+      </c>
+      <c r="B130">
+        <v>36.981213628174245</v>
+      </c>
+      <c r="C130">
+        <v>2.9874189463782321</v>
+      </c>
+      <c r="D130">
+        <v>3.077517723768354</v>
+      </c>
+      <c r="E130">
+        <v>27.234276963054093</v>
+      </c>
+      <c r="F130">
+        <v>28.550713924166711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>29.190594969198717</v>
+      </c>
+      <c r="B131">
+        <v>29.980894042632546</v>
+      </c>
+      <c r="C131">
+        <v>3.6713398485355828</v>
+      </c>
+      <c r="D131">
+        <v>3.7037490331501766</v>
+      </c>
+      <c r="E131">
+        <v>33.668367146184416</v>
+      </c>
+      <c r="F131">
+        <v>32.448183016762279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>45.661707246256441</v>
+      </c>
+      <c r="B132">
+        <v>39.461719601477263</v>
+      </c>
+      <c r="C132">
+        <v>3.063521246338663</v>
+      </c>
+      <c r="D132">
+        <v>2.8475083323944075</v>
+      </c>
+      <c r="E132">
+        <v>26.225291448464176</v>
+      </c>
+      <c r="F132">
+        <v>25.076482541036903</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>47.653343000560156</v>
+      </c>
+      <c r="B133">
+        <v>40.451552804904395</v>
+      </c>
+      <c r="C133">
+        <v>4.0091917338580281</v>
+      </c>
+      <c r="D133">
+        <v>3.8576991973639103</v>
+      </c>
+      <c r="E133">
+        <v>42.449436513688845</v>
+      </c>
+      <c r="F133">
+        <v>42.192916410931495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>40.551336421453108</v>
+      </c>
+      <c r="B134">
+        <v>36.705941805584544</v>
+      </c>
+      <c r="C134">
+        <v>4.9486855112876773</v>
+      </c>
+      <c r="D134">
+        <v>5.0558557133895823</v>
+      </c>
+      <c r="E134">
+        <v>31.884488601048783</v>
+      </c>
+      <c r="F134">
+        <v>33.139038433449315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>14.980543222340387</v>
+      </c>
+      <c r="B135">
+        <v>18.33642478716936</v>
+      </c>
+      <c r="C135">
+        <v>4.0669088573481273</v>
+      </c>
+      <c r="D135">
+        <v>3.9824856820606596</v>
+      </c>
+      <c r="E135">
+        <v>21.581950681089545</v>
+      </c>
+      <c r="F135">
+        <v>20.8167714086064</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>37.29450055819035</v>
+      </c>
+      <c r="B136">
+        <v>40.80630132893576</v>
+      </c>
+      <c r="C136">
+        <v>3.7485334821552065</v>
+      </c>
+      <c r="D136">
+        <v>3.8303603598426199</v>
+      </c>
+      <c r="E136">
+        <v>44.107501806138274</v>
+      </c>
+      <c r="F136">
+        <v>44.405685526800973</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>44.810526247609502</v>
+      </c>
+      <c r="B137">
+        <v>38.050580196929566</v>
+      </c>
+      <c r="C137">
+        <v>4.5754529109567654</v>
+      </c>
+      <c r="D137">
+        <v>4.188725905258833</v>
+      </c>
+      <c r="E137">
+        <v>42.527849310516061</v>
+      </c>
+      <c r="F137">
+        <v>40.683902590107571</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>29.898797076665193</v>
+      </c>
+      <c r="B138">
+        <v>29.63861032542879</v>
+      </c>
+      <c r="C138">
+        <v>4.0643099204185136</v>
+      </c>
+      <c r="D138">
+        <v>4.0107434756489333</v>
+      </c>
+      <c r="E138">
+        <v>21.182148995172604</v>
+      </c>
+      <c r="F138">
+        <v>21.764911123079987</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>37.590143266171083</v>
+      </c>
+      <c r="B139">
+        <v>39.290911142165022</v>
+      </c>
+      <c r="C139">
+        <v>3.1303944858146346</v>
+      </c>
+      <c r="D139">
+        <v>3.1728337401018014</v>
+      </c>
+      <c r="E139">
+        <v>24.087623702271806</v>
+      </c>
+      <c r="F139">
+        <v>26.297545112175463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>35.615998779806333</v>
+      </c>
+      <c r="B140">
+        <v>35.419201503692975</v>
+      </c>
+      <c r="C140">
+        <v>3.4132200869607661</v>
+      </c>
+      <c r="D140">
+        <v>3.2950479904074559</v>
+      </c>
+      <c r="E140">
+        <v>20.713348242555419</v>
+      </c>
+      <c r="F140">
+        <v>20.942020428902975</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>22.016227837690934</v>
+      </c>
+      <c r="B141">
+        <v>22.588318006171733</v>
+      </c>
+      <c r="C141">
+        <v>3.8574843336758895</v>
+      </c>
+      <c r="D141">
+        <v>3.7640216170907523</v>
+      </c>
+      <c r="E141">
+        <v>24.41442171453874</v>
+      </c>
+      <c r="F141">
+        <v>23.438792104485692</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>36.24194204723095</v>
+      </c>
+      <c r="B142">
+        <v>30.647259047836474</v>
+      </c>
+      <c r="C142">
+        <v>6.0866459125867438</v>
+      </c>
+      <c r="D142">
+        <v>4.0150673602656273</v>
+      </c>
+      <c r="E142">
+        <v>14.711774008295219</v>
+      </c>
+      <c r="F142">
+        <v>15.200268920248005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>22.954196869968236</v>
+      </c>
+      <c r="B143">
+        <v>24.659154615058448</v>
+      </c>
+      <c r="C143">
+        <v>2.5395165084780733</v>
+      </c>
+      <c r="D143">
+        <v>2.3843422212107521</v>
+      </c>
+      <c r="E143">
+        <v>29.583070958979292</v>
+      </c>
+      <c r="F143">
+        <v>28.213498018716283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>30.42478523706643</v>
+      </c>
+      <c r="B144">
+        <v>29.870488570697628</v>
+      </c>
+      <c r="C144">
+        <v>2.6194683580176341</v>
+      </c>
+      <c r="D144">
+        <v>2.6337844417123315</v>
+      </c>
+      <c r="E144">
+        <v>26.676478700517393</v>
+      </c>
+      <c r="F144">
+        <v>26.222191768457233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>41.155668752434906</v>
+      </c>
+      <c r="B145">
+        <v>34.118009167490371</v>
+      </c>
+      <c r="C145">
+        <v>4.5941292190695453</v>
+      </c>
+      <c r="D145">
+        <v>4.6292173614252414</v>
+      </c>
+      <c r="E145">
+        <v>38.505192758407162</v>
+      </c>
+      <c r="F145">
+        <v>41.728374805099911</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>32.650636121419957</v>
+      </c>
+      <c r="B146">
+        <v>32.674136736787794</v>
+      </c>
+      <c r="C146">
+        <v>2.49272825723247</v>
+      </c>
+      <c r="D146">
+        <v>2.7626763761498183</v>
+      </c>
+      <c r="E146">
+        <v>19.632541467800401</v>
+      </c>
+      <c r="F146">
+        <v>18.224442429385022</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>33.230968779586938</v>
+      </c>
+      <c r="B147">
+        <v>32.94476224246435</v>
+      </c>
+      <c r="C147">
+        <v>3.4174311496234568</v>
+      </c>
+      <c r="D147">
+        <v>3.1449090440568148</v>
+      </c>
+      <c r="E147">
+        <v>46.107257728908024</v>
+      </c>
+      <c r="F147">
+        <v>45.783465701886882</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>22.886001802520578</v>
+      </c>
+      <c r="B148">
+        <v>24.808115809351051</v>
+      </c>
+      <c r="C148">
+        <v>4.1055702541002717</v>
+      </c>
+      <c r="D148">
+        <v>3.85581149067264</v>
+      </c>
+      <c r="E148">
+        <v>38.2187000379081</v>
+      </c>
+      <c r="F148">
+        <v>38.147831578025489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>21.448019842813224</v>
+      </c>
+      <c r="B149">
+        <v>21.869468248361486</v>
+      </c>
+      <c r="C149">
+        <v>3.0757547651804535</v>
+      </c>
+      <c r="D149">
+        <v>2.9103020984790673</v>
+      </c>
+      <c r="E149">
+        <v>18.167476861673638</v>
+      </c>
+      <c r="F149">
+        <v>20.951108188746357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>21.939873387529218</v>
+      </c>
+      <c r="B150">
+        <v>25.804510303977512</v>
+      </c>
+      <c r="C150">
+        <v>2.91918383871747</v>
+      </c>
+      <c r="D150">
+        <v>3.0063181250585065</v>
+      </c>
+      <c r="E150">
+        <v>21.132420604436891</v>
+      </c>
+      <c r="F150">
+        <v>19.184728280758463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>29.240187775250909</v>
+      </c>
+      <c r="B151">
+        <v>31.797152982752664</v>
+      </c>
+      <c r="C151">
+        <v>3.075018981023069</v>
+      </c>
+      <c r="D151">
+        <v>3.0272267086870204</v>
+      </c>
+      <c r="E151">
+        <v>30.782418360142298</v>
+      </c>
+      <c r="F151">
+        <v>29.954120624689441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>33.411829124856055</v>
+      </c>
+      <c r="B152">
+        <v>32.226891671718505</v>
+      </c>
+      <c r="C152">
+        <v>2.7746882246028015</v>
+      </c>
+      <c r="D152">
+        <v>2.9320184058997554</v>
+      </c>
+      <c r="E152">
+        <v>34.178870289238681</v>
+      </c>
+      <c r="F152">
+        <v>34.94989865625238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>44.630724102848312</v>
+      </c>
+      <c r="B153">
+        <v>35.673444459344864</v>
+      </c>
+      <c r="C153">
+        <v>3.8826222111574311</v>
+      </c>
+      <c r="D153">
+        <v>3.3701951920817166</v>
+      </c>
+      <c r="E153">
+        <v>21.00089296382863</v>
+      </c>
+      <c r="F153">
+        <v>19.971775758455138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>25.173849473933501</v>
+      </c>
+      <c r="B154">
+        <v>22.285158086881104</v>
+      </c>
+      <c r="C154">
+        <v>2.71853539219688</v>
+      </c>
+      <c r="D154">
+        <v>2.8281188882211565</v>
+      </c>
+      <c r="E154">
+        <v>33.351056397440956</v>
+      </c>
+      <c r="F154">
+        <v>34.304282165048143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>40.965406061756013</v>
+      </c>
+      <c r="B155">
+        <v>34.780519634079781</v>
+      </c>
+      <c r="C155">
+        <v>5.0193711007997139</v>
+      </c>
+      <c r="D155">
+        <v>4.053294832181928</v>
+      </c>
+      <c r="E155">
+        <v>31.72718851567614</v>
+      </c>
+      <c r="F155">
+        <v>31.506349611153528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>48.611171485001371</v>
+      </c>
+      <c r="B156">
+        <v>45.399340063547676</v>
+      </c>
+      <c r="C156">
+        <v>5.6621247568071</v>
+      </c>
+      <c r="D156">
+        <v>5.1854685092399482</v>
+      </c>
+      <c r="E156">
+        <v>53.295666524385034</v>
+      </c>
+      <c r="F156">
+        <v>51.775611458317016</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>26.670958128924386</v>
+      </c>
+      <c r="B157">
+        <v>25.702077124625788</v>
+      </c>
+      <c r="C157">
+        <v>3.0760540600501454</v>
+      </c>
+      <c r="D157">
+        <v>3.0818501620959804</v>
+      </c>
+      <c r="E157">
+        <v>10.209779378798874</v>
+      </c>
+      <c r="F157">
+        <v>10.958547064771187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>47.355338864300371</v>
+      </c>
+      <c r="B158">
+        <v>41.234692750413316</v>
+      </c>
+      <c r="C158">
+        <v>5.0038867355152794</v>
+      </c>
+      <c r="D158">
+        <v>4.473848283920792</v>
+      </c>
+      <c r="E158">
+        <v>34.156539778424545</v>
+      </c>
+      <c r="F158">
+        <v>34.268335648745122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>41.777055774557461</v>
+      </c>
+      <c r="B159">
+        <v>42.631801156947191</v>
+      </c>
+      <c r="C159">
+        <v>3.341752623116331</v>
+      </c>
+      <c r="D159">
+        <v>3.1330696253903589</v>
+      </c>
+      <c r="E159">
+        <v>41.508186285039983</v>
+      </c>
+      <c r="F159">
+        <v>39.264633129695895</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>29.920193441122272</v>
+      </c>
+      <c r="B160">
+        <v>33.252989770875445</v>
+      </c>
+      <c r="C160">
+        <v>4.2931706180683484</v>
+      </c>
+      <c r="D160">
+        <v>4.0609668107773587</v>
+      </c>
+      <c r="E160">
+        <v>31.420026730857309</v>
+      </c>
+      <c r="F160">
+        <v>31.161171723811321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>35.951166361730721</v>
+      </c>
+      <c r="B161">
+        <v>41.012740411867433</v>
+      </c>
+      <c r="C161">
+        <v>4.216356439444545</v>
+      </c>
+      <c r="D161">
+        <v>3.9174195439482697</v>
+      </c>
+      <c r="E161">
+        <v>55.098087829602363</v>
+      </c>
+      <c r="F161">
+        <v>53.646640412543775</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>32.033237421297287</v>
+      </c>
+      <c r="B162">
+        <v>34.875396663538552</v>
+      </c>
+      <c r="C162">
+        <v>2.7294415786704178</v>
+      </c>
+      <c r="D162">
+        <v>2.9642418085966655</v>
+      </c>
+      <c r="E162">
+        <v>37.906255662465618</v>
+      </c>
+      <c r="F162">
+        <v>39.239431423770448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>48.488417989011083</v>
+      </c>
+      <c r="B163">
+        <v>42.05550399067976</v>
+      </c>
+      <c r="C163">
+        <v>6.896066082340008</v>
+      </c>
+      <c r="D163">
+        <v>6.129801529104367</v>
+      </c>
+      <c r="E163">
+        <v>24.248402685084777</v>
+      </c>
+      <c r="F163">
+        <v>25.046701102826042</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>27.094880875144995</v>
+      </c>
+      <c r="B164">
+        <v>27.633418166695741</v>
+      </c>
+      <c r="C164">
+        <v>6.3030387100245449</v>
+      </c>
+      <c r="D164">
+        <v>6.1461919992167475</v>
+      </c>
+      <c r="E164">
+        <v>24.416126679920431</v>
+      </c>
+      <c r="F164">
+        <v>30.946641317009831</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>28.342148190260517</v>
+      </c>
+      <c r="B165">
+        <v>29.273814239844221</v>
+      </c>
+      <c r="C165">
+        <v>2.8545698071860532</v>
+      </c>
+      <c r="D165">
+        <v>2.961832120434809</v>
+      </c>
+      <c r="E165">
+        <v>20.424751770517975</v>
+      </c>
+      <c r="F165">
+        <v>20.201826888456139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>24.84792284016563</v>
+      </c>
+      <c r="B166">
+        <v>24.840577359353205</v>
+      </c>
+      <c r="C166">
+        <v>2.4304526472857035</v>
+      </c>
+      <c r="D166">
+        <v>2.5477048542350653</v>
+      </c>
+      <c r="E166">
+        <v>16.724907148304091</v>
+      </c>
+      <c r="F166">
+        <v>16.949737608338701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>24.519356898716605</v>
+      </c>
+      <c r="B167">
+        <v>21.234677710786414</v>
+      </c>
+      <c r="C167">
+        <v>2.6469777443914051</v>
+      </c>
+      <c r="D167">
+        <v>2.8582347198643854</v>
+      </c>
+      <c r="E167">
+        <v>22.44601676242107</v>
+      </c>
+      <c r="F167">
+        <v>20.96391556392015</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>24.879843030783384</v>
+      </c>
+      <c r="B168">
+        <v>28.957909858917091</v>
+      </c>
+      <c r="C168">
+        <v>3.3538013343220285</v>
+      </c>
+      <c r="D168">
+        <v>3.4273475173429717</v>
+      </c>
+      <c r="E168">
+        <v>35.678191289012275</v>
+      </c>
+      <c r="F168">
+        <v>33.732349988157438</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>26.663684172834095</v>
+      </c>
+      <c r="B169">
+        <v>23.228606290289573</v>
+      </c>
+      <c r="C169">
+        <v>3.0449201794334102</v>
+      </c>
+      <c r="D169">
+        <v>3.0428714587058932</v>
+      </c>
+      <c r="E169">
+        <v>28.298254786080477</v>
+      </c>
+      <c r="F169">
+        <v>31.459776054727111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>44.452148263684514</v>
+      </c>
+      <c r="B170">
+        <v>35.258840549787109</v>
+      </c>
+      <c r="C170">
+        <v>5.4322509726935566</v>
+      </c>
+      <c r="D170">
+        <v>3.9804763966876262</v>
+      </c>
+      <c r="E170">
+        <v>21.489158488906039</v>
+      </c>
+      <c r="F170">
+        <v>23.14649016432681</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>27.056774328776513</v>
+      </c>
+      <c r="B171">
+        <v>28.891388619457516</v>
+      </c>
+      <c r="C171">
+        <v>2.7233448562466136</v>
+      </c>
+      <c r="D171">
+        <v>2.5573994801473101</v>
+      </c>
+      <c r="E171">
+        <v>27.019211966642594</v>
+      </c>
+      <c r="F171">
+        <v>25.101228923122559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>30.418766848382628</v>
+      </c>
+      <c r="B172">
+        <v>33.252928374789199</v>
+      </c>
+      <c r="C172">
+        <v>3.106963207847198</v>
+      </c>
+      <c r="D172">
+        <v>3.0310205901497826</v>
+      </c>
+      <c r="E172">
+        <v>47.902134132108671</v>
+      </c>
+      <c r="F172">
+        <v>47.671684354686469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>28.507141115365208</v>
+      </c>
+      <c r="B173">
+        <v>27.101107676697747</v>
+      </c>
+      <c r="C173">
+        <v>2.7085235383257804</v>
+      </c>
+      <c r="D173">
+        <v>2.8304173601967006</v>
+      </c>
+      <c r="E173">
+        <v>24.87737582137645</v>
+      </c>
+      <c r="F173">
+        <v>21.863847501727353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>25.013253742848882</v>
+      </c>
+      <c r="B174">
+        <v>26.89452712084606</v>
+      </c>
+      <c r="C174">
+        <v>3.5476935527356996</v>
+      </c>
+      <c r="D174">
+        <v>3.5230640333320173</v>
+      </c>
+      <c r="E174">
+        <v>21.885180068858663</v>
+      </c>
+      <c r="F174">
+        <v>21.388959401841806</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>40.39957412009889</v>
+      </c>
+      <c r="B175">
+        <v>37.984382976498239</v>
+      </c>
+      <c r="C175">
+        <v>2.8553100661239976</v>
+      </c>
+      <c r="D175">
+        <v>2.7037393376727969</v>
+      </c>
+      <c r="E175">
+        <v>45.600591972883173</v>
+      </c>
+      <c r="F175">
+        <v>43.615677696515746</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>14.131257207687202</v>
+      </c>
+      <c r="B176">
+        <v>16.887064453298894</v>
+      </c>
+      <c r="C176">
+        <v>3.2235821555941917</v>
+      </c>
+      <c r="D176">
+        <v>3.2706171773688348</v>
+      </c>
+      <c r="E176">
+        <v>13.821935119811247</v>
+      </c>
+      <c r="F176">
+        <v>15.44046966783317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>33.521856236298909</v>
+      </c>
+      <c r="B177">
+        <v>26.396152064356826</v>
+      </c>
+      <c r="C177">
+        <v>5.2393756289966369</v>
+      </c>
+      <c r="D177">
+        <v>5.0447315193275948</v>
+      </c>
+      <c r="E177">
+        <v>37.476463046593764</v>
+      </c>
+      <c r="F177">
+        <v>37.59463487502962</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>22.644477615078642</v>
+      </c>
+      <c r="B178">
+        <v>21.823935449860212</v>
+      </c>
+      <c r="C178">
+        <v>3.9055087914448636</v>
+      </c>
+      <c r="D178">
+        <v>3.9829030156684055</v>
+      </c>
+      <c r="E178">
+        <v>21.23840453346509</v>
+      </c>
+      <c r="F178">
+        <v>18.679715811566812</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>35.914406025450219</v>
+      </c>
+      <c r="B179">
+        <v>31.850059871549448</v>
+      </c>
+      <c r="C179">
+        <v>3.2473651815476496</v>
+      </c>
+      <c r="D179">
+        <v>2.9394926063005236</v>
+      </c>
+      <c r="E179">
+        <v>23.094577945796431</v>
+      </c>
+      <c r="F179">
+        <v>22.873783008289301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>44.762635964958747</v>
+      </c>
+      <c r="B180">
+        <v>44.611620992934235</v>
+      </c>
+      <c r="C180">
+        <v>3.46526212975541</v>
+      </c>
+      <c r="D180">
+        <v>3.2660062562224801</v>
+      </c>
+      <c r="E180">
+        <v>55.637342522042601</v>
+      </c>
+      <c r="F180">
+        <v>56.600944367014137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>27.008425779591803</v>
+      </c>
+      <c r="B181">
+        <v>26.004316466950158</v>
+      </c>
+      <c r="C181">
+        <v>3.3542707421153675</v>
+      </c>
+      <c r="D181">
+        <v>3.0030832730645054</v>
+      </c>
+      <c r="E181">
+        <v>38.491728682514093</v>
+      </c>
+      <c r="F181">
+        <v>38.799331726289225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>14.047366458440486</v>
+      </c>
+      <c r="B182">
+        <v>14.056929077292445</v>
+      </c>
+      <c r="C182">
+        <v>3.4513067141881248</v>
+      </c>
+      <c r="D182">
+        <v>3.5034201212851839</v>
+      </c>
+      <c r="E182">
+        <v>28.079414809782737</v>
+      </c>
+      <c r="F182">
+        <v>26.85341641371274</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>32.64658873086006</v>
+      </c>
+      <c r="B183">
+        <v>36.493349666920864</v>
+      </c>
+      <c r="C183">
+        <v>3.8094085102975788</v>
+      </c>
+      <c r="D183">
+        <v>3.6720538535737712</v>
+      </c>
+      <c r="E183">
+        <v>29.924474747395113</v>
+      </c>
+      <c r="F183">
+        <v>29.446617444127199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>25.58859246384872</v>
+      </c>
+      <c r="B184">
+        <v>26.218535164286759</v>
+      </c>
+      <c r="C184">
+        <v>2.9382571628242928</v>
+      </c>
+      <c r="D184">
+        <v>2.5629640566274747</v>
+      </c>
+      <c r="E184">
+        <v>19.589705415094155</v>
+      </c>
+      <c r="F184">
+        <v>19.40266826932719</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>22.740578799796758</v>
+      </c>
+      <c r="B185">
+        <v>20.525544417359999</v>
+      </c>
+      <c r="C185">
+        <v>2.9967828399203271</v>
+      </c>
+      <c r="D185">
+        <v>2.9314909956883746</v>
+      </c>
+      <c r="E185">
+        <v>16.086319915291419</v>
+      </c>
+      <c r="F185">
+        <v>16.661969280124588</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>28.475773086432866</v>
+      </c>
+      <c r="B186">
+        <v>28.233134077342193</v>
+      </c>
+      <c r="C186">
+        <v>3.2529538071957744</v>
+      </c>
+      <c r="D186">
+        <v>3.2254032668259063</v>
+      </c>
+      <c r="E186">
+        <v>14.465993787407669</v>
+      </c>
+      <c r="F186">
+        <v>12.927866104396779</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>23.55900989235235</v>
+      </c>
+      <c r="B187">
+        <v>21.527074106023484</v>
+      </c>
+      <c r="C187">
+        <v>3.3215998440700574</v>
+      </c>
+      <c r="D187">
+        <v>3.1688592090195078</v>
+      </c>
+      <c r="E187">
+        <v>27.217263625101477</v>
+      </c>
+      <c r="F187">
+        <v>28.514686282446249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>25.339737156126397</v>
+      </c>
+      <c r="B188">
+        <v>24.706838355456739</v>
+      </c>
+      <c r="C188">
+        <v>3.2195891120298161</v>
+      </c>
+      <c r="D188">
+        <v>3.1733761781841801</v>
+      </c>
+      <c r="E188">
+        <v>13.170676696661769</v>
+      </c>
+      <c r="F188">
+        <v>12.796497097963838</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>41.858889941212823</v>
+      </c>
+      <c r="B189">
+        <v>40.675356608586831</v>
+      </c>
+      <c r="C189">
+        <v>3.1679033157232062</v>
+      </c>
+      <c r="D189">
+        <v>3.3067559458713367</v>
+      </c>
+      <c r="E189">
+        <v>37.963853308501953</v>
+      </c>
+      <c r="F189">
+        <v>38.266925595881155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>18.659253732860684</v>
+      </c>
+      <c r="B190">
+        <v>18.223805327704305</v>
+      </c>
+      <c r="C190">
+        <v>2.9519696589464495</v>
+      </c>
+      <c r="D190">
+        <v>2.8600612126864551</v>
+      </c>
+      <c r="E190">
+        <v>19.104797926701128</v>
+      </c>
+      <c r="F190">
+        <v>17.720783230415389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>17.789526350733865</v>
+      </c>
+      <c r="B191">
+        <v>19.970464850426833</v>
+      </c>
+      <c r="C191">
+        <v>4.0963822705668322</v>
+      </c>
+      <c r="D191">
+        <v>4.0554041756945232</v>
+      </c>
+      <c r="E191">
+        <v>18.450423515185488</v>
+      </c>
+      <c r="F191">
+        <v>17.400339031236317</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>30.348965308552657</v>
+      </c>
+      <c r="B192">
+        <v>29.42363548116824</v>
+      </c>
+      <c r="C192">
+        <v>2.9447419693356558</v>
+      </c>
+      <c r="D192">
+        <v>3.141137980280889</v>
+      </c>
+      <c r="E192">
+        <v>22.44660659098426</v>
+      </c>
+      <c r="F192">
+        <v>21.698800180442532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>33.310766017548147</v>
+      </c>
+      <c r="B193">
+        <v>38.227406624139135</v>
+      </c>
+      <c r="C193">
+        <v>4.5200803298930063</v>
+      </c>
+      <c r="D193">
+        <v>4.1162073436565212</v>
+      </c>
+      <c r="E193">
+        <v>24.658550510292571</v>
+      </c>
+      <c r="F193">
+        <v>26.2450375548502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>32.883785149025826</v>
+      </c>
+      <c r="B194">
+        <v>33.283507784222842</v>
+      </c>
+      <c r="C194">
+        <v>3.1912633521299822</v>
+      </c>
+      <c r="D194">
+        <v>2.9707644569846021</v>
+      </c>
+      <c r="E194">
+        <v>14.524931928011805</v>
+      </c>
+      <c r="F194">
+        <v>14.815425472950535</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>33.475773975433079</v>
+      </c>
+      <c r="B195">
+        <v>40.385685807540199</v>
+      </c>
+      <c r="C195">
+        <v>3.2788243603430072</v>
+      </c>
+      <c r="D195">
+        <v>3.4178860977516785</v>
+      </c>
+      <c r="E195">
+        <v>25.391203173148046</v>
+      </c>
+      <c r="F195">
+        <v>26.156612683299159</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>33.216319406159528</v>
+      </c>
+      <c r="B196">
+        <v>33.639604896387027</v>
+      </c>
+      <c r="C196">
+        <v>2.7478112303840039</v>
+      </c>
+      <c r="D196">
+        <v>2.9541439030689252</v>
+      </c>
+      <c r="E196">
+        <v>26.811979572474332</v>
+      </c>
+      <c r="F196">
+        <v>27.331793148556315</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>34.588601876803516</v>
+      </c>
+      <c r="B197">
+        <v>31.78529027564705</v>
+      </c>
+      <c r="C197">
+        <v>5.1368612307833015</v>
+      </c>
+      <c r="D197">
+        <v>4.8611234933506893</v>
+      </c>
+      <c r="E197">
+        <v>33.346757791939943</v>
+      </c>
+      <c r="F197">
+        <v>32.552638709734453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>41.043512703450595</v>
+      </c>
+      <c r="B198">
+        <v>36.971132623249218</v>
+      </c>
+      <c r="C198">
+        <v>8.5168648705569403</v>
+      </c>
+      <c r="D198">
+        <v>7.7078768566437956</v>
+      </c>
+      <c r="E198">
+        <v>42.918800120883745</v>
+      </c>
+      <c r="F198">
+        <v>46.642168125784899</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>47.31260398013287</v>
+      </c>
+      <c r="B199">
+        <v>47.707851619546894</v>
+      </c>
+      <c r="C199">
+        <v>3.5840151632386461</v>
+      </c>
+      <c r="D199">
+        <v>3.3657034075660932</v>
+      </c>
+      <c r="E199">
+        <v>52.719891831720808</v>
+      </c>
+      <c r="F199">
+        <v>51.224381565226828</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>20.245792764831279</v>
+      </c>
+      <c r="B200">
+        <v>19.775405878260962</v>
+      </c>
+      <c r="C200">
+        <v>2.8146620485682243</v>
+      </c>
+      <c r="D200">
+        <v>2.8575759887780103</v>
+      </c>
+      <c r="E200">
+        <v>28.747641638881628</v>
+      </c>
+      <c r="F200">
+        <v>25.103690743334194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>15.28529360474236</v>
+      </c>
+      <c r="B201">
+        <v>15.644315777197843</v>
+      </c>
+      <c r="C201">
+        <v>2.8124173485434714</v>
+      </c>
+      <c r="D201">
+        <v>2.9983630527599257</v>
+      </c>
+      <c r="E201">
+        <v>17.142901565668573</v>
+      </c>
+      <c r="F201">
+        <v>16.267751686028042</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>24.273248103273772</v>
+      </c>
+      <c r="B202">
+        <v>22.020764594340847</v>
+      </c>
+      <c r="C202">
+        <v>5.5132309464730946</v>
+      </c>
+      <c r="D202">
+        <v>5.0259501237339901</v>
+      </c>
+      <c r="E202">
+        <v>13.424967682406832</v>
+      </c>
+      <c r="F202">
+        <v>13.9578071476473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>21.345518684295961</v>
+      </c>
+      <c r="B203">
+        <v>9.9011041550938756</v>
+      </c>
+      <c r="C203">
+        <v>6.8150801484344106</v>
+      </c>
+      <c r="D203">
+        <v>6.1424296186859468</v>
+      </c>
+      <c r="E203">
+        <v>21.470005223339392</v>
+      </c>
+      <c r="F203">
+        <v>21.626594482522496</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>24.412946727945076</v>
+      </c>
+      <c r="B204">
+        <v>26.690783282267738</v>
+      </c>
+      <c r="C204">
+        <v>5.8492242048793255</v>
+      </c>
+      <c r="D204">
+        <v>5.646695273990515</v>
+      </c>
+      <c r="E204">
+        <v>8.7529994704591711</v>
+      </c>
+      <c r="F204">
+        <v>8.9605191668755211</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>29.947800261663744</v>
+      </c>
+      <c r="B205">
+        <v>25.164189386342237</v>
+      </c>
+      <c r="C205">
+        <v>5.9992637216378766</v>
+      </c>
+      <c r="D205">
+        <v>5.7142414715491334</v>
+      </c>
+      <c r="E205">
+        <v>14.51822346998714</v>
+      </c>
+      <c r="F205">
+        <v>13.819414428182109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>39.918781080510882</v>
+      </c>
+      <c r="B206">
+        <v>35.140911805645452</v>
+      </c>
+      <c r="C206">
+        <v>5.6929495659266998</v>
+      </c>
+      <c r="D206">
+        <v>5.1910011877733533</v>
+      </c>
+      <c r="E206">
+        <v>34.961215785443329</v>
+      </c>
+      <c r="F206">
+        <v>35.951110207936424</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>23.519500478480708</v>
+      </c>
+      <c r="B207">
+        <v>23.84902751054031</v>
+      </c>
+      <c r="C207">
+        <v>2.8290447690361678</v>
+      </c>
+      <c r="D207">
+        <v>2.8722811231290484</v>
+      </c>
+      <c r="E207">
+        <v>16.429963850930321</v>
+      </c>
+      <c r="F207">
+        <v>14.884468685911569</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>15.313569106836106</v>
+      </c>
+      <c r="B208">
+        <v>15.53546875076519</v>
+      </c>
+      <c r="C208">
+        <v>3.0123899418344391</v>
+      </c>
+      <c r="D208">
+        <v>2.9445784776788559</v>
+      </c>
+      <c r="E208">
+        <v>23.666598776307406</v>
+      </c>
+      <c r="F208">
+        <v>21.873276241652579</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>26.68209946081646</v>
+      </c>
+      <c r="B209">
+        <v>27.096579861680173</v>
+      </c>
+      <c r="C209">
+        <v>2.664184739519484</v>
+      </c>
+      <c r="D209">
+        <v>2.5821920394074391</v>
+      </c>
+      <c r="E209">
+        <v>25.254724635296149</v>
+      </c>
+      <c r="F209">
+        <v>23.797736792846113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>16.972373716503476</v>
+      </c>
+      <c r="B210">
+        <v>16.700643184356679</v>
+      </c>
+      <c r="C210">
+        <v>3.2358329233962362</v>
+      </c>
+      <c r="D210">
+        <v>3.2242472758561518</v>
+      </c>
+      <c r="E210">
+        <v>12.618694654865582</v>
+      </c>
+      <c r="F210">
+        <v>12.550490888605861</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>20.204977989459344</v>
+      </c>
+      <c r="B211">
+        <v>20.116470885255275</v>
+      </c>
+      <c r="C211">
+        <v>4.4239816020118852</v>
+      </c>
+      <c r="D211">
+        <v>4.4204394596262242</v>
+      </c>
+      <c r="E211">
+        <v>17.111945899795312</v>
+      </c>
+      <c r="F211">
+        <v>17.493903116134334</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>24.386329625448219</v>
+      </c>
+      <c r="B212">
+        <v>24.753250851311556</v>
+      </c>
+      <c r="C212">
+        <v>4.9863835253515116</v>
+      </c>
+      <c r="D212">
+        <v>4.940972814959002</v>
+      </c>
+      <c r="E212">
+        <v>8.0294483719538103</v>
+      </c>
+      <c r="F212">
+        <v>7.5864721411553262</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>21.273986170419647</v>
+      </c>
+      <c r="B213">
+        <v>21.04950338879063</v>
+      </c>
+      <c r="C213">
+        <v>2.4428486298303795</v>
+      </c>
+      <c r="D213">
+        <v>2.4079739427475984</v>
+      </c>
+      <c r="E213">
+        <v>13.183893226319695</v>
+      </c>
+      <c r="F213">
+        <v>12.729711275506798</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>9.6344851362124686</v>
+      </c>
+      <c r="B214">
+        <v>9.5538023796606666</v>
+      </c>
+      <c r="C214">
+        <v>2.9864662907494148</v>
+      </c>
+      <c r="D214">
+        <v>3.0871140406963051</v>
+      </c>
+      <c r="E214">
+        <v>16.708089775512757</v>
+      </c>
+      <c r="F214">
+        <v>15.754776696058467</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>34.738291901613358</v>
+      </c>
+      <c r="B215">
+        <v>34.849366599543337</v>
+      </c>
+      <c r="C215">
+        <v>5.4122692721533561</v>
+      </c>
+      <c r="D215">
+        <v>5.3424746326897088</v>
+      </c>
+      <c r="E215">
+        <v>22.763985569012824</v>
+      </c>
+      <c r="F215">
+        <v>23.144369821033681</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>21.921831148452675</v>
+      </c>
+      <c r="B216">
+        <v>20.343746077090064</v>
+      </c>
+      <c r="C216">
+        <v>2.9338176291037561</v>
+      </c>
+      <c r="D216">
+        <v>3.0980865174840386</v>
+      </c>
+      <c r="E216">
+        <v>12.28695142667083</v>
+      </c>
+      <c r="F216">
+        <v>12.399183438856436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>13.792680104770113</v>
+      </c>
+      <c r="B217">
+        <v>15.123366250688406</v>
+      </c>
+      <c r="C217">
+        <v>4.1424000240294587</v>
+      </c>
+      <c r="D217">
+        <v>4.0065113973602955</v>
+      </c>
+      <c r="E217">
+        <v>6.5763474836097595</v>
+      </c>
+      <c r="F217">
+        <v>6.0763149178083751</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>9.590043284496268</v>
+      </c>
+      <c r="B218">
+        <v>8.7959391770808963</v>
+      </c>
+      <c r="C218">
+        <v>3.6474343420031365</v>
+      </c>
+      <c r="D218">
+        <v>3.6788883549607321</v>
+      </c>
+      <c r="E218">
+        <v>12.219593903558403</v>
+      </c>
+      <c r="F218">
+        <v>12.232914017580841</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>25.504773914708288</v>
+      </c>
+      <c r="B219">
+        <v>25.10381748305317</v>
+      </c>
+      <c r="C219">
+        <v>3.8150317965430145</v>
+      </c>
+      <c r="D219">
+        <v>3.8024373986290274</v>
+      </c>
+      <c r="E219">
+        <v>20.220277238223403</v>
+      </c>
+      <c r="F219">
+        <v>19.668329848376288</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>28.791906713999001</v>
+      </c>
+      <c r="B220">
+        <v>29.128795411159039</v>
+      </c>
+      <c r="C220">
+        <v>3.0980420080224125</v>
+      </c>
+      <c r="D220">
+        <v>3.2227212033595927</v>
+      </c>
+      <c r="E220">
+        <v>7.3249876577522066</v>
+      </c>
+      <c r="F220">
+        <v>7.1744494248655046</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>23.451289300757786</v>
+      </c>
+      <c r="B221">
+        <v>25.710163539641268</v>
+      </c>
+      <c r="C221">
+        <v>2.9502118526438559</v>
+      </c>
+      <c r="D221">
+        <v>3.0242258466386494</v>
+      </c>
+      <c r="E221">
+        <v>9.7493000996117942</v>
+      </c>
+      <c r="F221">
+        <v>10.170373440934979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>10.258626658358558</v>
+      </c>
+      <c r="B222">
+        <v>10.253558931404932</v>
+      </c>
+      <c r="C222">
+        <v>5.5910361539503199</v>
+      </c>
+      <c r="D222">
+        <v>5.4926463749276602</v>
+      </c>
+      <c r="E222">
+        <v>17.042135489451468</v>
+      </c>
+      <c r="F222">
+        <v>16.229418503663545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>37.277729061073984</v>
+      </c>
+      <c r="B223">
+        <v>38.921903476283717</v>
+      </c>
+      <c r="C223">
+        <v>2.7057806615493303</v>
+      </c>
+      <c r="D223">
+        <v>2.6563354666144856</v>
+      </c>
+      <c r="E223">
+        <v>27.147513484969991</v>
+      </c>
+      <c r="F223">
+        <v>28.140813526830811</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>28.971097481143673</v>
+      </c>
+      <c r="B224">
+        <v>31.056194050092504</v>
+      </c>
+      <c r="C224">
+        <v>2.550390704177437</v>
+      </c>
+      <c r="D224">
+        <v>2.5452076147737355</v>
+      </c>
+      <c r="E224">
+        <v>21.848172274569823</v>
+      </c>
+      <c r="F224">
+        <v>20.273697571232997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>32.422423932043557</v>
+      </c>
+      <c r="B225">
+        <v>31.826647852274892</v>
+      </c>
+      <c r="C225">
+        <v>4.8498465641374189</v>
+      </c>
+      <c r="D225">
+        <v>4.8902489173234391</v>
+      </c>
+      <c r="E225">
+        <v>13.372774061356701</v>
+      </c>
+      <c r="F225">
+        <v>12.830068084689602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>18.374179422955294</v>
+      </c>
+      <c r="B226">
+        <v>18.197722571043776</v>
+      </c>
+      <c r="C226">
+        <v>3.1758859292213404</v>
+      </c>
+      <c r="D226">
+        <v>3.1847807316494268</v>
+      </c>
+      <c r="E226">
+        <v>14.993340123872898</v>
+      </c>
+      <c r="F226">
+        <v>15.762093980641504</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>26.093241709832263</v>
+      </c>
+      <c r="B227">
+        <v>28.56319637358677</v>
+      </c>
+      <c r="C227">
+        <v>2.6778417955977458</v>
+      </c>
+      <c r="D227">
+        <v>2.6661674710852448</v>
+      </c>
+      <c r="E227">
+        <v>26.212599415083488</v>
+      </c>
+      <c r="F227">
+        <v>24.92750227720628</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>33.571735392270185</v>
+      </c>
+      <c r="B228">
+        <v>35.53854760588171</v>
+      </c>
+      <c r="C228">
+        <v>3.3438917891788962</v>
+      </c>
+      <c r="D228">
+        <v>3.3464642550053489</v>
+      </c>
+      <c r="E228">
+        <v>19.765894653117812</v>
+      </c>
+      <c r="F228">
+        <v>19.318812549616148</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>26.380750474610387</v>
+      </c>
+      <c r="B229">
+        <v>27.064033502230338</v>
+      </c>
+      <c r="C229">
+        <v>6.2075923085271247</v>
+      </c>
+      <c r="D229">
+        <v>5.9525760416598539</v>
+      </c>
+      <c r="E229">
+        <v>35.019275171479272</v>
+      </c>
+      <c r="F229">
+        <v>35.836617807798881</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>41.244175435836247</v>
+      </c>
+      <c r="B230">
+        <v>36.981213628174245</v>
+      </c>
+      <c r="C230">
+        <v>2.9874189463782321</v>
+      </c>
+      <c r="D230">
+        <v>3.077517723768354</v>
+      </c>
+      <c r="E230">
+        <v>27.234276963054093</v>
+      </c>
+      <c r="F230">
+        <v>28.550713924166711</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>29.190594969198717</v>
+      </c>
+      <c r="B231">
+        <v>29.980894042632546</v>
+      </c>
+      <c r="C231">
+        <v>3.6713398485355828</v>
+      </c>
+      <c r="D231">
+        <v>3.7037490331501766</v>
+      </c>
+      <c r="E231">
+        <v>33.668367146184416</v>
+      </c>
+      <c r="F231">
+        <v>32.448183016762279</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>45.661707246256441</v>
+      </c>
+      <c r="B232">
+        <v>39.461719601477263</v>
+      </c>
+      <c r="C232">
+        <v>3.063521246338663</v>
+      </c>
+      <c r="D232">
+        <v>2.8475083323944075</v>
+      </c>
+      <c r="E232">
+        <v>26.225291448464176</v>
+      </c>
+      <c r="F232">
+        <v>25.076482541036903</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>47.653343000560156</v>
+      </c>
+      <c r="B233">
+        <v>40.451552804904395</v>
+      </c>
+      <c r="C233">
+        <v>4.0091917338580281</v>
+      </c>
+      <c r="D233">
+        <v>3.8576991973639103</v>
+      </c>
+      <c r="E233">
+        <v>42.449436513688845</v>
+      </c>
+      <c r="F233">
+        <v>42.192916410931495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>40.551336421453108</v>
+      </c>
+      <c r="B234">
+        <v>36.705941805584544</v>
+      </c>
+      <c r="C234">
+        <v>4.9486855112876773</v>
+      </c>
+      <c r="D234">
+        <v>5.0558557133895823</v>
+      </c>
+      <c r="E234">
+        <v>31.884488601048783</v>
+      </c>
+      <c r="F234">
+        <v>33.139038433449315</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>14.980543222340387</v>
+      </c>
+      <c r="B235">
+        <v>18.33642478716936</v>
+      </c>
+      <c r="C235">
+        <v>4.0669088573481273</v>
+      </c>
+      <c r="D235">
+        <v>3.9824856820606596</v>
+      </c>
+      <c r="E235">
+        <v>21.581950681089545</v>
+      </c>
+      <c r="F235">
+        <v>20.8167714086064</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>37.29450055819035</v>
+      </c>
+      <c r="B236">
+        <v>40.80630132893576</v>
+      </c>
+      <c r="C236">
+        <v>3.7485334821552065</v>
+      </c>
+      <c r="D236">
+        <v>3.8303603598426199</v>
+      </c>
+      <c r="E236">
+        <v>44.107501806138274</v>
+      </c>
+      <c r="F236">
+        <v>44.405685526800973</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>44.810526247609502</v>
+      </c>
+      <c r="B237">
+        <v>38.050580196929566</v>
+      </c>
+      <c r="C237">
+        <v>4.5754529109567654</v>
+      </c>
+      <c r="D237">
+        <v>4.188725905258833</v>
+      </c>
+      <c r="E237">
+        <v>42.527849310516061</v>
+      </c>
+      <c r="F237">
+        <v>40.683902590107571</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>29.898797076665193</v>
+      </c>
+      <c r="B238">
+        <v>29.63861032542879</v>
+      </c>
+      <c r="C238">
+        <v>4.0643099204185136</v>
+      </c>
+      <c r="D238">
+        <v>4.0107434756489333</v>
+      </c>
+      <c r="E238">
+        <v>21.182148995172604</v>
+      </c>
+      <c r="F238">
+        <v>21.764911123079987</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>37.590143266171083</v>
+      </c>
+      <c r="B239">
+        <v>39.290911142165022</v>
+      </c>
+      <c r="C239">
+        <v>3.1303944858146346</v>
+      </c>
+      <c r="D239">
+        <v>3.1728337401018014</v>
+      </c>
+      <c r="E239">
+        <v>24.087623702271806</v>
+      </c>
+      <c r="F239">
+        <v>26.297545112175463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>35.615998779806333</v>
+      </c>
+      <c r="B240">
+        <v>35.419201503692975</v>
+      </c>
+      <c r="C240">
+        <v>3.4132200869607661</v>
+      </c>
+      <c r="D240">
+        <v>3.2950479904074559</v>
+      </c>
+      <c r="E240">
+        <v>20.713348242555419</v>
+      </c>
+      <c r="F240">
+        <v>20.942020428902975</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>22.016227837690934</v>
+      </c>
+      <c r="B241">
+        <v>22.588318006171733</v>
+      </c>
+      <c r="C241">
+        <v>3.8574843336758895</v>
+      </c>
+      <c r="D241">
+        <v>3.7640216170907523</v>
+      </c>
+      <c r="E241">
+        <v>24.41442171453874</v>
+      </c>
+      <c r="F241">
+        <v>23.438792104485692</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>36.24194204723095</v>
+      </c>
+      <c r="B242">
+        <v>30.647259047836474</v>
+      </c>
+      <c r="C242">
+        <v>6.0866459125867438</v>
+      </c>
+      <c r="D242">
+        <v>4.0150673602656273</v>
+      </c>
+      <c r="E242">
+        <v>14.711774008295219</v>
+      </c>
+      <c r="F242">
+        <v>15.200268920248005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>22.954196869968236</v>
+      </c>
+      <c r="B243">
+        <v>24.659154615058448</v>
+      </c>
+      <c r="C243">
+        <v>2.5395165084780733</v>
+      </c>
+      <c r="D243">
+        <v>2.3843422212107521</v>
+      </c>
+      <c r="E243">
+        <v>29.583070958979292</v>
+      </c>
+      <c r="F243">
+        <v>28.213498018716283</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>30.42478523706643</v>
+      </c>
+      <c r="B244">
+        <v>29.870488570697628</v>
+      </c>
+      <c r="C244">
+        <v>2.6194683580176341</v>
+      </c>
+      <c r="D244">
+        <v>2.6337844417123315</v>
+      </c>
+      <c r="E244">
+        <v>26.676478700517393</v>
+      </c>
+      <c r="F244">
+        <v>26.222191768457233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>41.155668752434906</v>
+      </c>
+      <c r="B245">
+        <v>34.118009167490371</v>
+      </c>
+      <c r="C245">
+        <v>4.5941292190695453</v>
+      </c>
+      <c r="D245">
+        <v>4.6292173614252414</v>
+      </c>
+      <c r="E245">
+        <v>38.505192758407162</v>
+      </c>
+      <c r="F245">
+        <v>41.728374805099911</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>32.650636121419957</v>
+      </c>
+      <c r="B246">
+        <v>32.674136736787794</v>
+      </c>
+      <c r="C246">
+        <v>2.49272825723247</v>
+      </c>
+      <c r="D246">
+        <v>2.7626763761498183</v>
+      </c>
+      <c r="E246">
+        <v>19.632541467800401</v>
+      </c>
+      <c r="F246">
+        <v>18.224442429385022</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>33.230968779586938</v>
+      </c>
+      <c r="B247">
+        <v>32.94476224246435</v>
+      </c>
+      <c r="C247">
+        <v>3.4174311496234568</v>
+      </c>
+      <c r="D247">
+        <v>3.1449090440568148</v>
+      </c>
+      <c r="E247">
+        <v>46.107257728908024</v>
+      </c>
+      <c r="F247">
+        <v>45.783465701886882</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>22.886001802520578</v>
+      </c>
+      <c r="B248">
+        <v>24.808115809351051</v>
+      </c>
+      <c r="C248">
+        <v>4.1055702541002717</v>
+      </c>
+      <c r="D248">
+        <v>3.85581149067264</v>
+      </c>
+      <c r="E248">
+        <v>38.2187000379081</v>
+      </c>
+      <c r="F248">
+        <v>38.147831578025489</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>21.448019842813224</v>
+      </c>
+      <c r="B249">
+        <v>21.869468248361486</v>
+      </c>
+      <c r="C249">
+        <v>3.0757547651804535</v>
+      </c>
+      <c r="D249">
+        <v>2.9103020984790673</v>
+      </c>
+      <c r="E249">
+        <v>18.167476861673638</v>
+      </c>
+      <c r="F249">
+        <v>20.951108188746357</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>21.939873387529218</v>
+      </c>
+      <c r="B250">
+        <v>25.804510303977512</v>
+      </c>
+      <c r="C250">
+        <v>2.91918383871747</v>
+      </c>
+      <c r="D250">
+        <v>3.0063181250585065</v>
+      </c>
+      <c r="E250">
+        <v>21.132420604436891</v>
+      </c>
+      <c r="F250">
+        <v>19.184728280758463</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>29.240187775250909</v>
+      </c>
+      <c r="B251">
+        <v>31.797152982752664</v>
+      </c>
+      <c r="C251">
+        <v>3.075018981023069</v>
+      </c>
+      <c r="D251">
+        <v>3.0272267086870204</v>
+      </c>
+      <c r="E251">
+        <v>30.782418360142298</v>
+      </c>
+      <c r="F251">
+        <v>29.954120624689441</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>33.411829124856055</v>
+      </c>
+      <c r="B252">
+        <v>32.226891671718505</v>
+      </c>
+      <c r="C252">
+        <v>2.7746882246028015</v>
+      </c>
+      <c r="D252">
+        <v>2.9320184058997554</v>
+      </c>
+      <c r="E252">
+        <v>34.178870289238681</v>
+      </c>
+      <c r="F252">
+        <v>34.94989865625238</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>44.630724102848312</v>
+      </c>
+      <c r="B253">
+        <v>35.673444459344864</v>
+      </c>
+      <c r="C253">
+        <v>3.8826222111574311</v>
+      </c>
+      <c r="D253">
+        <v>3.3701951920817166</v>
+      </c>
+      <c r="E253">
+        <v>21.00089296382863</v>
+      </c>
+      <c r="F253">
+        <v>19.971775758455138</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>25.173849473933501</v>
+      </c>
+      <c r="B254">
+        <v>22.285158086881104</v>
+      </c>
+      <c r="C254">
+        <v>2.71853539219688</v>
+      </c>
+      <c r="D254">
+        <v>2.8281188882211565</v>
+      </c>
+      <c r="E254">
+        <v>33.351056397440956</v>
+      </c>
+      <c r="F254">
+        <v>34.304282165048143</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>40.965406061756013</v>
+      </c>
+      <c r="B255">
+        <v>34.780519634079781</v>
+      </c>
+      <c r="C255">
+        <v>5.0193711007997139</v>
+      </c>
+      <c r="D255">
+        <v>4.053294832181928</v>
+      </c>
+      <c r="E255">
+        <v>31.72718851567614</v>
+      </c>
+      <c r="F255">
+        <v>31.506349611153528</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>48.611171485001371</v>
+      </c>
+      <c r="B256">
+        <v>45.399340063547676</v>
+      </c>
+      <c r="C256">
+        <v>5.6621247568071</v>
+      </c>
+      <c r="D256">
+        <v>5.1854685092399482</v>
+      </c>
+      <c r="E256">
+        <v>53.295666524385034</v>
+      </c>
+      <c r="F256">
+        <v>51.775611458317016</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>26.670958128924386</v>
+      </c>
+      <c r="B257">
+        <v>25.702077124625788</v>
+      </c>
+      <c r="C257">
+        <v>3.0760540600501454</v>
+      </c>
+      <c r="D257">
+        <v>3.0818501620959804</v>
+      </c>
+      <c r="E257">
+        <v>10.209779378798874</v>
+      </c>
+      <c r="F257">
+        <v>10.958547064771187</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>47.355338864300371</v>
+      </c>
+      <c r="B258">
+        <v>41.234692750413316</v>
+      </c>
+      <c r="C258">
+        <v>5.0038867355152794</v>
+      </c>
+      <c r="D258">
+        <v>4.473848283920792</v>
+      </c>
+      <c r="E258">
+        <v>34.156539778424545</v>
+      </c>
+      <c r="F258">
+        <v>34.268335648745122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>41.777055774557461</v>
+      </c>
+      <c r="B259">
+        <v>42.631801156947191</v>
+      </c>
+      <c r="C259">
+        <v>3.341752623116331</v>
+      </c>
+      <c r="D259">
+        <v>3.1330696253903589</v>
+      </c>
+      <c r="E259">
+        <v>41.508186285039983</v>
+      </c>
+      <c r="F259">
+        <v>39.264633129695895</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>29.920193441122272</v>
+      </c>
+      <c r="B260">
+        <v>33.252989770875445</v>
+      </c>
+      <c r="C260">
+        <v>4.2931706180683484</v>
+      </c>
+      <c r="D260">
+        <v>4.0609668107773587</v>
+      </c>
+      <c r="E260">
+        <v>31.420026730857309</v>
+      </c>
+      <c r="F260">
+        <v>31.161171723811321</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>35.951166361730721</v>
+      </c>
+      <c r="B261">
+        <v>41.012740411867433</v>
+      </c>
+      <c r="C261">
+        <v>4.216356439444545</v>
+      </c>
+      <c r="D261">
+        <v>3.9174195439482697</v>
+      </c>
+      <c r="E261">
+        <v>55.098087829602363</v>
+      </c>
+      <c r="F261">
+        <v>53.646640412543775</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>32.033237421297287</v>
+      </c>
+      <c r="B262">
+        <v>34.875396663538552</v>
+      </c>
+      <c r="C262">
+        <v>2.7294415786704178</v>
+      </c>
+      <c r="D262">
+        <v>2.9642418085966655</v>
+      </c>
+      <c r="E262">
+        <v>37.906255662465618</v>
+      </c>
+      <c r="F262">
+        <v>39.239431423770448</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>48.488417989011083</v>
+      </c>
+      <c r="B263">
+        <v>42.05550399067976</v>
+      </c>
+      <c r="C263">
+        <v>6.896066082340008</v>
+      </c>
+      <c r="D263">
+        <v>6.129801529104367</v>
+      </c>
+      <c r="E263">
+        <v>24.248402685084777</v>
+      </c>
+      <c r="F263">
+        <v>25.046701102826042</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>27.094880875144995</v>
+      </c>
+      <c r="B264">
+        <v>27.633418166695741</v>
+      </c>
+      <c r="C264">
+        <v>6.3030387100245449</v>
+      </c>
+      <c r="D264">
+        <v>6.1461919992167475</v>
+      </c>
+      <c r="E264">
+        <v>24.416126679920431</v>
+      </c>
+      <c r="F264">
+        <v>30.946641317009831</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>28.342148190260517</v>
+      </c>
+      <c r="B265">
+        <v>29.273814239844221</v>
+      </c>
+      <c r="C265">
+        <v>2.8545698071860532</v>
+      </c>
+      <c r="D265">
+        <v>2.961832120434809</v>
+      </c>
+      <c r="E265">
+        <v>20.424751770517975</v>
+      </c>
+      <c r="F265">
+        <v>20.201826888456139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>24.84792284016563</v>
+      </c>
+      <c r="B266">
+        <v>24.840577359353205</v>
+      </c>
+      <c r="C266">
+        <v>2.4304526472857035</v>
+      </c>
+      <c r="D266">
+        <v>2.5477048542350653</v>
+      </c>
+      <c r="E266">
+        <v>16.724907148304091</v>
+      </c>
+      <c r="F266">
+        <v>16.949737608338701</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>24.519356898716605</v>
+      </c>
+      <c r="B267">
+        <v>21.234677710786414</v>
+      </c>
+      <c r="C267">
+        <v>2.6469777443914051</v>
+      </c>
+      <c r="D267">
+        <v>2.8582347198643854</v>
+      </c>
+      <c r="E267">
+        <v>22.44601676242107</v>
+      </c>
+      <c r="F267">
+        <v>20.96391556392015</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>24.879843030783384</v>
+      </c>
+      <c r="B268">
+        <v>28.957909858917091</v>
+      </c>
+      <c r="C268">
+        <v>3.3538013343220285</v>
+      </c>
+      <c r="D268">
+        <v>3.4273475173429717</v>
+      </c>
+      <c r="E268">
+        <v>35.678191289012275</v>
+      </c>
+      <c r="F268">
+        <v>33.732349988157438</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>26.663684172834095</v>
+      </c>
+      <c r="B269">
+        <v>23.228606290289573</v>
+      </c>
+      <c r="C269">
+        <v>3.0449201794334102</v>
+      </c>
+      <c r="D269">
+        <v>3.0428714587058932</v>
+      </c>
+      <c r="E269">
+        <v>28.298254786080477</v>
+      </c>
+      <c r="F269">
+        <v>31.459776054727111</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>44.452148263684514</v>
+      </c>
+      <c r="B270">
+        <v>35.258840549787109</v>
+      </c>
+      <c r="C270">
+        <v>5.4322509726935566</v>
+      </c>
+      <c r="D270">
+        <v>3.9804763966876262</v>
+      </c>
+      <c r="E270">
+        <v>21.489158488906039</v>
+      </c>
+      <c r="F270">
+        <v>23.14649016432681</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>27.056774328776513</v>
+      </c>
+      <c r="B271">
+        <v>28.891388619457516</v>
+      </c>
+      <c r="C271">
+        <v>2.7233448562466136</v>
+      </c>
+      <c r="D271">
+        <v>2.5573994801473101</v>
+      </c>
+      <c r="E271">
+        <v>27.019211966642594</v>
+      </c>
+      <c r="F271">
+        <v>25.101228923122559</v>
       </c>
     </row>
   </sheetData>
